--- a/TBEA/BusinessPerformance/Documentation/经营管控平台一期开发计划表.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/经营管控平台一期开发计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7755" firstSheet="20" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7755" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="各单位" sheetId="20" r:id="rId1"/>
@@ -6823,471 +6823,6 @@
     <xf numFmtId="0" fontId="97" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="35" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="93" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="93" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="26" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7300,9 +6835,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7313,6 +6845,474 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="35" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="93" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="93" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="26" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="7"/>
@@ -16284,8 +16284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="O102" sqref="O102"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16314,7 +16314,7 @@
       <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="33.75">
-      <c r="A2" s="484" t="s">
+      <c r="A2" s="329" t="s">
         <v>925</v>
       </c>
       <c r="B2" s="31"/>
@@ -16331,31 +16331,31 @@
       <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="353" t="s">
+      <c r="A3" s="363" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="354" t="s">
+      <c r="B3" s="366" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354"/>
-      <c r="H3" s="354"/>
-      <c r="I3" s="354"/>
-      <c r="J3" s="354"/>
-      <c r="K3" s="354" t="s">
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="366"/>
+      <c r="I3" s="366"/>
+      <c r="J3" s="366"/>
+      <c r="K3" s="366" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="354"/>
-      <c r="M3" s="354"/>
+      <c r="L3" s="366"/>
+      <c r="M3" s="366"/>
       <c r="O3" s="3" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="353"/>
+      <c r="A4" s="363"/>
       <c r="B4" s="277" t="s">
         <v>99</v>
       </c>
@@ -16394,7 +16394,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="481" t="s">
+      <c r="A5" s="326" t="s">
         <v>920</v>
       </c>
       <c r="B5" s="277"/>
@@ -16462,7 +16462,7 @@
       <c r="M8" s="277"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="481" t="s">
+      <c r="A9" s="326" t="s">
         <v>921</v>
       </c>
       <c r="B9" s="277"/>
@@ -16530,7 +16530,7 @@
       <c r="M12" s="277"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="481" t="s">
+      <c r="A13" s="326" t="s">
         <v>104</v>
       </c>
       <c r="B13" s="277"/>
@@ -16547,7 +16547,7 @@
       <c r="M13" s="277"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="481" t="s">
+      <c r="A14" s="326" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="277"/>
@@ -16771,18 +16771,18 @@
       <c r="A27" s="293" t="s">
         <v>922</v>
       </c>
-      <c r="B27" s="482"/>
-      <c r="C27" s="482"/>
-      <c r="D27" s="482"/>
-      <c r="E27" s="482"/>
-      <c r="F27" s="482"/>
-      <c r="G27" s="482"/>
-      <c r="H27" s="482"/>
-      <c r="I27" s="482"/>
-      <c r="J27" s="482"/>
-      <c r="K27" s="482"/>
-      <c r="L27" s="482"/>
-      <c r="M27" s="482"/>
+      <c r="B27" s="327"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
+      <c r="E27" s="327"/>
+      <c r="F27" s="327"/>
+      <c r="G27" s="327"/>
+      <c r="H27" s="327"/>
+      <c r="I27" s="327"/>
+      <c r="J27" s="327"/>
+      <c r="K27" s="327"/>
+      <c r="L27" s="327"/>
+      <c r="M27" s="327"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="3"/>
@@ -16815,31 +16815,31 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="353" t="s">
+      <c r="A30" s="363" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="354" t="s">
+      <c r="B30" s="366" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="354"/>
-      <c r="D30" s="354"/>
-      <c r="E30" s="354"/>
-      <c r="F30" s="354"/>
-      <c r="G30" s="354"/>
-      <c r="H30" s="354"/>
-      <c r="I30" s="354"/>
-      <c r="J30" s="354"/>
-      <c r="K30" s="354" t="s">
+      <c r="C30" s="366"/>
+      <c r="D30" s="366"/>
+      <c r="E30" s="366"/>
+      <c r="F30" s="366"/>
+      <c r="G30" s="366"/>
+      <c r="H30" s="366"/>
+      <c r="I30" s="366"/>
+      <c r="J30" s="366"/>
+      <c r="K30" s="366" t="s">
         <v>0</v>
       </c>
-      <c r="L30" s="354"/>
-      <c r="M30" s="354"/>
+      <c r="L30" s="366"/>
+      <c r="M30" s="366"/>
       <c r="O30" s="3" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="353"/>
+      <c r="A31" s="363"/>
       <c r="B31" s="277" t="s">
         <v>99</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="24">
+    <row r="32" spans="1:15">
       <c r="A32" s="279" t="s">
         <v>147</v>
       </c>
@@ -16894,7 +16894,7 @@
       <c r="L32" s="278"/>
       <c r="M32" s="278"/>
     </row>
-    <row r="33" spans="1:13" ht="36.75">
+    <row r="33" spans="1:13">
       <c r="A33" s="293" t="s">
         <v>146</v>
       </c>
@@ -17013,7 +17013,7 @@
       <c r="L39" s="278"/>
       <c r="M39" s="278"/>
     </row>
-    <row r="40" spans="1:13" ht="24">
+    <row r="40" spans="1:13">
       <c r="A40" s="279" t="s">
         <v>139</v>
       </c>
@@ -17030,7 +17030,7 @@
       <c r="L40" s="278"/>
       <c r="M40" s="278"/>
     </row>
-    <row r="41" spans="1:13" ht="37.5">
+    <row r="41" spans="1:13">
       <c r="A41" s="293" t="s">
         <v>138</v>
       </c>
@@ -17132,7 +17132,7 @@
       <c r="L46" s="278"/>
       <c r="M46" s="278"/>
     </row>
-    <row r="47" spans="1:13" ht="36.75">
+    <row r="47" spans="1:13">
       <c r="A47" s="293" t="s">
         <v>132</v>
       </c>
@@ -17248,31 +17248,31 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="353" t="s">
+      <c r="A54" s="363" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="354" t="s">
+      <c r="B54" s="366" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="354"/>
-      <c r="D54" s="354"/>
-      <c r="E54" s="354"/>
-      <c r="F54" s="354"/>
-      <c r="G54" s="354"/>
-      <c r="H54" s="354"/>
-      <c r="I54" s="354"/>
-      <c r="J54" s="354"/>
-      <c r="K54" s="354" t="s">
+      <c r="C54" s="366"/>
+      <c r="D54" s="366"/>
+      <c r="E54" s="366"/>
+      <c r="F54" s="366"/>
+      <c r="G54" s="366"/>
+      <c r="H54" s="366"/>
+      <c r="I54" s="366"/>
+      <c r="J54" s="366"/>
+      <c r="K54" s="366" t="s">
         <v>0</v>
       </c>
-      <c r="L54" s="354"/>
-      <c r="M54" s="354"/>
+      <c r="L54" s="366"/>
+      <c r="M54" s="366"/>
       <c r="O54" s="3" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="353"/>
+      <c r="A55" s="363"/>
       <c r="B55" s="277" t="s">
         <v>99</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="24">
+    <row r="56" spans="1:15">
       <c r="A56" s="279" t="s">
         <v>126</v>
       </c>
@@ -17327,7 +17327,7 @@
       <c r="L56" s="278"/>
       <c r="M56" s="278"/>
     </row>
-    <row r="57" spans="1:15" ht="24.75">
+    <row r="57" spans="1:15">
       <c r="A57" s="293" t="s">
         <v>125</v>
       </c>
@@ -17395,7 +17395,7 @@
       <c r="L60" s="278"/>
       <c r="M60" s="278"/>
     </row>
-    <row r="61" spans="1:15" ht="24">
+    <row r="61" spans="1:15">
       <c r="A61" s="279" t="s">
         <v>121</v>
       </c>
@@ -17412,7 +17412,7 @@
       <c r="L61" s="278"/>
       <c r="M61" s="278"/>
     </row>
-    <row r="62" spans="1:15" ht="24">
+    <row r="62" spans="1:15">
       <c r="A62" s="293" t="s">
         <v>120</v>
       </c>
@@ -17630,7 +17630,7 @@
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:15" ht="33.75">
-      <c r="A75" s="483" t="s">
+      <c r="A75" s="328" t="s">
         <v>924</v>
       </c>
       <c r="B75" s="3"/>
@@ -17647,31 +17647,31 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="353" t="s">
+      <c r="A76" s="363" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="355" t="s">
+      <c r="B76" s="364" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="355"/>
-      <c r="D76" s="355"/>
-      <c r="E76" s="355"/>
-      <c r="F76" s="355"/>
-      <c r="G76" s="355"/>
-      <c r="H76" s="355"/>
-      <c r="I76" s="355"/>
-      <c r="J76" s="355"/>
-      <c r="K76" s="356" t="s">
+      <c r="C76" s="364"/>
+      <c r="D76" s="364"/>
+      <c r="E76" s="364"/>
+      <c r="F76" s="364"/>
+      <c r="G76" s="364"/>
+      <c r="H76" s="364"/>
+      <c r="I76" s="364"/>
+      <c r="J76" s="364"/>
+      <c r="K76" s="365" t="s">
         <v>0</v>
       </c>
-      <c r="L76" s="356"/>
-      <c r="M76" s="356"/>
+      <c r="L76" s="365"/>
+      <c r="M76" s="365"/>
       <c r="O76" s="3" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="353"/>
+      <c r="A77" s="363"/>
       <c r="B77" s="293" t="s">
         <v>99</v>
       </c>
@@ -17709,8 +17709,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="24">
-      <c r="A78" s="481" t="s">
+    <row r="78" spans="1:15">
+      <c r="A78" s="326" t="s">
         <v>920</v>
       </c>
       <c r="B78" s="293"/>
@@ -17726,7 +17726,7 @@
       <c r="L78" s="293"/>
       <c r="M78" s="293"/>
     </row>
-    <row r="79" spans="1:15" ht="36">
+    <row r="79" spans="1:15">
       <c r="A79" s="277" t="s">
         <v>899</v>
       </c>
@@ -17743,7 +17743,7 @@
       <c r="L79" s="293"/>
       <c r="M79" s="293"/>
     </row>
-    <row r="80" spans="1:15" ht="36">
+    <row r="80" spans="1:15">
       <c r="A80" s="277" t="s">
         <v>900</v>
       </c>
@@ -17760,7 +17760,7 @@
       <c r="L80" s="293"/>
       <c r="M80" s="293"/>
     </row>
-    <row r="81" spans="1:13" ht="36">
+    <row r="81" spans="1:13">
       <c r="A81" s="277" t="s">
         <v>901</v>
       </c>
@@ -17777,8 +17777,8 @@
       <c r="L81" s="293"/>
       <c r="M81" s="293"/>
     </row>
-    <row r="82" spans="1:13" ht="24">
-      <c r="A82" s="481" t="s">
+    <row r="82" spans="1:13">
+      <c r="A82" s="326" t="s">
         <v>921</v>
       </c>
       <c r="B82" s="293"/>
@@ -17794,7 +17794,7 @@
       <c r="L82" s="293"/>
       <c r="M82" s="293"/>
     </row>
-    <row r="83" spans="1:13" ht="36">
+    <row r="83" spans="1:13">
       <c r="A83" s="277" t="s">
         <v>899</v>
       </c>
@@ -17811,7 +17811,7 @@
       <c r="L83" s="293"/>
       <c r="M83" s="293"/>
     </row>
-    <row r="84" spans="1:13" ht="36">
+    <row r="84" spans="1:13">
       <c r="A84" s="277" t="s">
         <v>900</v>
       </c>
@@ -17828,7 +17828,7 @@
       <c r="L84" s="293"/>
       <c r="M84" s="293"/>
     </row>
-    <row r="85" spans="1:13" ht="36">
+    <row r="85" spans="1:13">
       <c r="A85" s="277" t="s">
         <v>901</v>
       </c>
@@ -17846,7 +17846,7 @@
       <c r="M85" s="293"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="481" t="s">
+      <c r="A86" s="326" t="s">
         <v>104</v>
       </c>
       <c r="B86" s="293"/>
@@ -17863,7 +17863,7 @@
       <c r="M86" s="293"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="481" t="s">
+      <c r="A87" s="326" t="s">
         <v>103</v>
       </c>
       <c r="B87" s="293"/>
@@ -17964,7 +17964,7 @@
       <c r="L92" s="293"/>
       <c r="M92" s="293"/>
     </row>
-    <row r="93" spans="1:13" ht="24">
+    <row r="93" spans="1:13">
       <c r="A93" s="277" t="s">
         <v>908</v>
       </c>
@@ -17981,7 +17981,7 @@
       <c r="L93" s="293"/>
       <c r="M93" s="293"/>
     </row>
-    <row r="94" spans="1:13" ht="24">
+    <row r="94" spans="1:13">
       <c r="A94" s="277" t="s">
         <v>909</v>
       </c>
@@ -18116,31 +18116,31 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="353" t="s">
+      <c r="A102" s="363" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="355" t="s">
+      <c r="B102" s="364" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="355"/>
-      <c r="D102" s="355"/>
-      <c r="E102" s="355"/>
-      <c r="F102" s="355"/>
-      <c r="G102" s="355"/>
-      <c r="H102" s="355"/>
-      <c r="I102" s="355"/>
-      <c r="J102" s="355"/>
-      <c r="K102" s="356" t="s">
+      <c r="C102" s="364"/>
+      <c r="D102" s="364"/>
+      <c r="E102" s="364"/>
+      <c r="F102" s="364"/>
+      <c r="G102" s="364"/>
+      <c r="H102" s="364"/>
+      <c r="I102" s="364"/>
+      <c r="J102" s="364"/>
+      <c r="K102" s="365" t="s">
         <v>0</v>
       </c>
-      <c r="L102" s="356"/>
-      <c r="M102" s="356"/>
+      <c r="L102" s="365"/>
+      <c r="M102" s="365"/>
       <c r="O102" s="3" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="353"/>
+      <c r="A103" s="363"/>
       <c r="B103" s="293" t="s">
         <v>99</v>
       </c>
@@ -18435,6 +18435,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:M30"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="B102:J102"/>
     <mergeCell ref="K102:M102"/>
@@ -18444,12 +18450,6 @@
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="B76:J76"/>
     <mergeCell ref="K76:M76"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:M30"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18461,7 +18461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -18485,62 +18485,62 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="357" t="s">
+      <c r="A2" s="370" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="357" t="s">
+      <c r="B2" s="370" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="358" t="s">
+      <c r="C2" s="371" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="357" t="s">
+      <c r="D2" s="370" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="357" t="s">
+      <c r="E2" s="370" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="357" t="s">
+      <c r="F2" s="370" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="357" t="s">
+      <c r="G2" s="370" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="357" t="s">
+      <c r="H2" s="370" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="357" t="s">
+      <c r="I2" s="370" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="357"/>
+      <c r="J2" s="370"/>
     </row>
     <row r="3" spans="1:19" ht="36">
-      <c r="A3" s="357"/>
-      <c r="B3" s="357"/>
-      <c r="C3" s="359"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="357"/>
-      <c r="H3" s="357"/>
+      <c r="A3" s="370"/>
+      <c r="B3" s="370"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
       <c r="I3" s="35" t="s">
         <v>159</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="M3" s="485" t="s">
+      <c r="M3" s="330" t="s">
         <v>926</v>
       </c>
-      <c r="N3" s="485"/>
-      <c r="O3" s="485"/>
-      <c r="P3" s="485"/>
-      <c r="Q3" s="485"/>
-      <c r="R3" s="485"/>
-      <c r="S3" s="485"/>
+      <c r="N3" s="330"/>
+      <c r="O3" s="330"/>
+      <c r="P3" s="330"/>
+      <c r="Q3" s="330"/>
+      <c r="R3" s="330"/>
+      <c r="S3" s="330"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="357">
+      <c r="A4" s="370">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -18556,7 +18556,7 @@
       <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="357"/>
+      <c r="A5" s="370"/>
       <c r="B5" s="35" t="s">
         <v>162</v>
       </c>
@@ -18570,7 +18570,7 @@
       <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="357">
+      <c r="A6" s="370">
         <v>2</v>
       </c>
       <c r="B6" s="35" t="s">
@@ -18586,7 +18586,7 @@
       <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="357"/>
+      <c r="A7" s="370"/>
       <c r="B7" s="35" t="s">
         <v>162</v>
       </c>
@@ -18600,7 +18600,7 @@
       <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="357">
+      <c r="A8" s="370">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -18616,7 +18616,7 @@
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="357"/>
+      <c r="A9" s="370"/>
       <c r="B9" s="35" t="s">
         <v>162</v>
       </c>
@@ -18630,7 +18630,7 @@
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="357">
+      <c r="A10" s="370">
         <v>4</v>
       </c>
       <c r="B10" s="35" t="s">
@@ -18646,7 +18646,7 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="357"/>
+      <c r="A11" s="370"/>
       <c r="B11" s="35" t="s">
         <v>162</v>
       </c>
@@ -18660,7 +18660,7 @@
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="357">
+      <c r="A12" s="370">
         <v>5</v>
       </c>
       <c r="B12" s="35" t="s">
@@ -18676,7 +18676,7 @@
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="357"/>
+      <c r="A13" s="370"/>
       <c r="B13" s="35" t="s">
         <v>162</v>
       </c>
@@ -18690,7 +18690,7 @@
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="357">
+      <c r="A14" s="370">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
@@ -18706,7 +18706,7 @@
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="357"/>
+      <c r="A15" s="370"/>
       <c r="B15" s="35" t="s">
         <v>162</v>
       </c>
@@ -18720,7 +18720,7 @@
       <c r="J15" s="35"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="357">
+      <c r="A16" s="370">
         <v>7</v>
       </c>
       <c r="B16" s="35" t="s">
@@ -18736,7 +18736,7 @@
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="357"/>
+      <c r="A17" s="370"/>
       <c r="B17" s="35" t="s">
         <v>162</v>
       </c>
@@ -18750,7 +18750,7 @@
       <c r="J17" s="35"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="357">
+      <c r="A18" s="370">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -18766,7 +18766,7 @@
       <c r="J18" s="35"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="357"/>
+      <c r="A19" s="370"/>
       <c r="B19" s="35" t="s">
         <v>162</v>
       </c>
@@ -18780,7 +18780,7 @@
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="357">
+      <c r="A20" s="370">
         <v>9</v>
       </c>
       <c r="B20" s="35" t="s">
@@ -18796,7 +18796,7 @@
       <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="357"/>
+      <c r="A21" s="370"/>
       <c r="B21" s="35" t="s">
         <v>162</v>
       </c>
@@ -18810,7 +18810,7 @@
       <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="357">
+      <c r="A22" s="370">
         <v>10</v>
       </c>
       <c r="B22" s="35" t="s">
@@ -18826,7 +18826,7 @@
       <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="357"/>
+      <c r="A23" s="370"/>
       <c r="B23" s="35" t="s">
         <v>162</v>
       </c>
@@ -18840,7 +18840,7 @@
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="357">
+      <c r="A24" s="370">
         <v>11</v>
       </c>
       <c r="B24" s="35" t="s">
@@ -18856,7 +18856,7 @@
       <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="357"/>
+      <c r="A25" s="370"/>
       <c r="B25" s="35" t="s">
         <v>162</v>
       </c>
@@ -18870,7 +18870,7 @@
       <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="357">
+      <c r="A26" s="370">
         <v>12</v>
       </c>
       <c r="B26" s="35" t="s">
@@ -18886,7 +18886,7 @@
       <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="357"/>
+      <c r="A27" s="370"/>
       <c r="B27" s="35" t="s">
         <v>162</v>
       </c>
@@ -18900,15 +18900,15 @@
       <c r="J27" s="35"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="M30" s="490" t="s">
+      <c r="M30" s="334" t="s">
         <v>927</v>
       </c>
-      <c r="N30" s="491"/>
-      <c r="O30" s="491"/>
-      <c r="P30" s="491"/>
-      <c r="Q30" s="491"/>
-      <c r="R30" s="491"/>
-      <c r="S30" s="491"/>
+      <c r="N30" s="335"/>
+      <c r="O30" s="335"/>
+      <c r="P30" s="335"/>
+      <c r="Q30" s="335"/>
+      <c r="R30" s="335"/>
+      <c r="S30" s="335"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="34" t="s">
@@ -18931,40 +18931,40 @@
       <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="360" t="s">
+      <c r="A32" s="367" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="486" t="s">
+      <c r="B32" s="368" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="486"/>
-      <c r="D32" s="486"/>
-      <c r="E32" s="361" t="s">
+      <c r="C32" s="368"/>
+      <c r="D32" s="368"/>
+      <c r="E32" s="369" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="361"/>
-      <c r="G32" s="361"/>
-      <c r="H32" s="361"/>
-      <c r="I32" s="361"/>
-      <c r="J32" s="361"/>
-      <c r="K32" s="361"/>
-      <c r="L32" s="361"/>
-      <c r="M32" s="361"/>
-      <c r="N32" s="361" t="s">
+      <c r="F32" s="369"/>
+      <c r="G32" s="369"/>
+      <c r="H32" s="369"/>
+      <c r="I32" s="369"/>
+      <c r="J32" s="369"/>
+      <c r="K32" s="369"/>
+      <c r="L32" s="369"/>
+      <c r="M32" s="369"/>
+      <c r="N32" s="369" t="s">
         <v>167</v>
       </c>
-      <c r="O32" s="361"/>
-      <c r="P32" s="361"/>
+      <c r="O32" s="369"/>
+      <c r="P32" s="369"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="360"/>
-      <c r="B33" s="487" t="s">
+      <c r="A33" s="367"/>
+      <c r="B33" s="331" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="487" t="s">
+      <c r="C33" s="331" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="487" t="s">
+      <c r="D33" s="331" t="s">
         <v>170</v>
       </c>
       <c r="E33" s="38" t="s">
@@ -19008,9 +19008,9 @@
       <c r="A34" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="488"/>
-      <c r="C34" s="488"/>
-      <c r="D34" s="488" t="e">
+      <c r="B34" s="332"/>
+      <c r="C34" s="332"/>
+      <c r="D34" s="332" t="e">
         <f>1-C34/B34</f>
         <v>#DIV/0!</v>
       </c>
@@ -19034,9 +19034,9 @@
       <c r="A35" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="488"/>
-      <c r="C35" s="488"/>
-      <c r="D35" s="488"/>
+      <c r="B35" s="332"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -19054,9 +19054,9 @@
       <c r="A36" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="488"/>
-      <c r="C36" s="488"/>
-      <c r="D36" s="488"/>
+      <c r="B36" s="332"/>
+      <c r="C36" s="332"/>
+      <c r="D36" s="332"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -19074,9 +19074,9 @@
       <c r="A37" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="488"/>
-      <c r="C37" s="488"/>
-      <c r="D37" s="488"/>
+      <c r="B37" s="332"/>
+      <c r="C37" s="332"/>
+      <c r="D37" s="332"/>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -19094,9 +19094,9 @@
       <c r="A38" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="488"/>
-      <c r="C38" s="488"/>
-      <c r="D38" s="488"/>
+      <c r="B38" s="332"/>
+      <c r="C38" s="332"/>
+      <c r="D38" s="332"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -19149,40 +19149,40 @@
       <c r="P40" s="4"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="360" t="s">
+      <c r="A41" s="367" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="486" t="s">
+      <c r="B41" s="368" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="486"/>
-      <c r="D41" s="486"/>
-      <c r="E41" s="361" t="s">
+      <c r="C41" s="368"/>
+      <c r="D41" s="368"/>
+      <c r="E41" s="369" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="361"/>
-      <c r="G41" s="361"/>
-      <c r="H41" s="361"/>
-      <c r="I41" s="361"/>
-      <c r="J41" s="361"/>
-      <c r="K41" s="361"/>
-      <c r="L41" s="361"/>
-      <c r="M41" s="361"/>
-      <c r="N41" s="361" t="s">
+      <c r="F41" s="369"/>
+      <c r="G41" s="369"/>
+      <c r="H41" s="369"/>
+      <c r="I41" s="369"/>
+      <c r="J41" s="369"/>
+      <c r="K41" s="369"/>
+      <c r="L41" s="369"/>
+      <c r="M41" s="369"/>
+      <c r="N41" s="369" t="s">
         <v>167</v>
       </c>
-      <c r="O41" s="361"/>
-      <c r="P41" s="361"/>
+      <c r="O41" s="369"/>
+      <c r="P41" s="369"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="360"/>
-      <c r="B42" s="487" t="s">
+      <c r="A42" s="367"/>
+      <c r="B42" s="331" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="487" t="s">
+      <c r="C42" s="331" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="487" t="s">
+      <c r="D42" s="331" t="s">
         <v>170</v>
       </c>
       <c r="E42" s="38" t="s">
@@ -19226,9 +19226,9 @@
       <c r="A43" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="488"/>
-      <c r="C43" s="488"/>
-      <c r="D43" s="488" t="e">
+      <c r="B43" s="332"/>
+      <c r="C43" s="332"/>
+      <c r="D43" s="332" t="e">
         <f>1-C43/B43</f>
         <v>#DIV/0!</v>
       </c>
@@ -19252,9 +19252,9 @@
       <c r="A44" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="488"/>
-      <c r="C44" s="488"/>
-      <c r="D44" s="488"/>
+      <c r="B44" s="332"/>
+      <c r="C44" s="332"/>
+      <c r="D44" s="332"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -19272,9 +19272,9 @@
       <c r="A45" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="488"/>
-      <c r="C45" s="488"/>
-      <c r="D45" s="488"/>
+      <c r="B45" s="332"/>
+      <c r="C45" s="332"/>
+      <c r="D45" s="332"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -19292,9 +19292,9 @@
       <c r="A46" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="489"/>
-      <c r="C46" s="489"/>
-      <c r="D46" s="489"/>
+      <c r="B46" s="333"/>
+      <c r="C46" s="333"/>
+      <c r="D46" s="333"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -19312,9 +19312,9 @@
       <c r="A47" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B47" s="488"/>
-      <c r="C47" s="488"/>
-      <c r="D47" s="488"/>
+      <c r="B47" s="332"/>
+      <c r="C47" s="332"/>
+      <c r="D47" s="332"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
@@ -19332,9 +19332,9 @@
       <c r="A48" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="489"/>
-      <c r="C48" s="489"/>
-      <c r="D48" s="489"/>
+      <c r="B48" s="333"/>
+      <c r="C48" s="333"/>
+      <c r="D48" s="333"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -19352,9 +19352,9 @@
       <c r="A49" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="488"/>
-      <c r="C49" s="488"/>
-      <c r="D49" s="488"/>
+      <c r="B49" s="332"/>
+      <c r="C49" s="332"/>
+      <c r="D49" s="332"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -19370,20 +19370,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="E32:M32"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -19394,11 +19385,20 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="E32:M32"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19422,25 +19422,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="373" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="362" t="s">
+      <c r="B1" s="373" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362" t="s">
+      <c r="C1" s="373"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="373" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
+      <c r="F1" s="373"/>
+      <c r="G1" s="373"/>
       <c r="H1" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="362"/>
+      <c r="A2" s="373"/>
       <c r="B2" s="99" t="s">
         <v>314</v>
       </c>
@@ -19607,25 +19607,25 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1">
-      <c r="A19" s="363" t="s">
+      <c r="A19" s="374" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="364"/>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="364"/>
-      <c r="F19" s="364"/>
-      <c r="G19" s="364"/>
-      <c r="H19" s="364"/>
-      <c r="I19" s="364"/>
-      <c r="J19" s="364"/>
-      <c r="K19" s="364"/>
-      <c r="L19" s="364"/>
-      <c r="M19" s="364"/>
-      <c r="N19" s="364"/>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
-      <c r="Q19" s="365"/>
+      <c r="B19" s="375"/>
+      <c r="C19" s="375"/>
+      <c r="D19" s="375"/>
+      <c r="E19" s="375"/>
+      <c r="F19" s="375"/>
+      <c r="G19" s="375"/>
+      <c r="H19" s="375"/>
+      <c r="I19" s="375"/>
+      <c r="J19" s="375"/>
+      <c r="K19" s="375"/>
+      <c r="L19" s="375"/>
+      <c r="M19" s="375"/>
+      <c r="N19" s="375"/>
+      <c r="O19" s="375"/>
+      <c r="P19" s="375"/>
+      <c r="Q19" s="376"/>
     </row>
     <row r="20" spans="1:17" ht="33.75">
       <c r="A20" s="104" t="s">
@@ -19914,15 +19914,15 @@
       <c r="Q31" s="102"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="366" t="s">
+      <c r="A36" s="377" t="s">
         <v>347</v>
       </c>
-      <c r="B36" s="366"/>
-      <c r="C36" s="366"/>
-      <c r="D36" s="366"/>
-      <c r="E36" s="366"/>
-      <c r="F36" s="366"/>
-      <c r="G36" s="366"/>
+      <c r="B36" s="377"/>
+      <c r="C36" s="377"/>
+      <c r="D36" s="377"/>
+      <c r="E36" s="377"/>
+      <c r="F36" s="377"/>
+      <c r="G36" s="377"/>
       <c r="J36" s="107" t="s">
         <v>914</v>
       </c>
@@ -20060,64 +20060,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="66.75" customHeight="1">
-      <c r="A1" s="367" t="s">
+      <c r="A1" s="382" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="367"/>
-      <c r="C1" s="367"/>
-      <c r="D1" s="367"/>
-      <c r="E1" s="367"/>
-      <c r="F1" s="367"/>
-      <c r="G1" s="367"/>
-      <c r="H1" s="367"/>
-      <c r="I1" s="367"/>
-      <c r="J1" s="367"/>
-      <c r="K1" s="367"/>
-      <c r="L1" s="367"/>
-      <c r="M1" s="367"/>
-      <c r="N1" s="367"/>
-      <c r="O1" s="367"/>
-      <c r="P1" s="367"/>
-      <c r="Q1" s="367"/>
-      <c r="R1" s="367"/>
-      <c r="S1" s="367"/>
-      <c r="T1" s="367"/>
-      <c r="U1" s="367"/>
-      <c r="V1" s="367"/>
-      <c r="W1" s="367"/>
-      <c r="X1" s="367"/>
-      <c r="Y1" s="367"/>
-      <c r="Z1" s="367"/>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
+      <c r="I1" s="382"/>
+      <c r="J1" s="382"/>
+      <c r="K1" s="382"/>
+      <c r="L1" s="382"/>
+      <c r="M1" s="382"/>
+      <c r="N1" s="382"/>
+      <c r="O1" s="382"/>
+      <c r="P1" s="382"/>
+      <c r="Q1" s="382"/>
+      <c r="R1" s="382"/>
+      <c r="S1" s="382"/>
+      <c r="T1" s="382"/>
+      <c r="U1" s="382"/>
+      <c r="V1" s="382"/>
+      <c r="W1" s="382"/>
+      <c r="X1" s="382"/>
+      <c r="Y1" s="382"/>
+      <c r="Z1" s="382"/>
     </row>
     <row r="2" spans="1:26" ht="25.5">
-      <c r="A2" s="373" t="s">
+      <c r="A2" s="387" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="373"/>
-      <c r="C2" s="373"/>
-      <c r="D2" s="373"/>
-      <c r="E2" s="373"/>
-      <c r="F2" s="373"/>
-      <c r="G2" s="373"/>
-      <c r="H2" s="373"/>
-      <c r="I2" s="373"/>
-      <c r="J2" s="373"/>
-      <c r="K2" s="373"/>
-      <c r="L2" s="373"/>
-      <c r="M2" s="373"/>
-      <c r="N2" s="373"/>
-      <c r="O2" s="373"/>
-      <c r="P2" s="373"/>
-      <c r="Q2" s="373"/>
-      <c r="R2" s="373"/>
-      <c r="S2" s="373"/>
-      <c r="T2" s="373"/>
-      <c r="U2" s="373"/>
-      <c r="V2" s="373"/>
-      <c r="W2" s="373"/>
-      <c r="X2" s="373"/>
-      <c r="Y2" s="373"/>
-      <c r="Z2" s="373"/>
+      <c r="B2" s="387"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="387"/>
+      <c r="H2" s="387"/>
+      <c r="I2" s="387"/>
+      <c r="J2" s="387"/>
+      <c r="K2" s="387"/>
+      <c r="L2" s="387"/>
+      <c r="M2" s="387"/>
+      <c r="N2" s="387"/>
+      <c r="O2" s="387"/>
+      <c r="P2" s="387"/>
+      <c r="Q2" s="387"/>
+      <c r="R2" s="387"/>
+      <c r="S2" s="387"/>
+      <c r="T2" s="387"/>
+      <c r="U2" s="387"/>
+      <c r="V2" s="387"/>
+      <c r="W2" s="387"/>
+      <c r="X2" s="387"/>
+      <c r="Y2" s="387"/>
+      <c r="Z2" s="387"/>
     </row>
     <row r="3" spans="1:26" ht="14.25">
       <c r="A3" s="40"/>
@@ -20162,44 +20162,44 @@
       <c r="Z3" s="40"/>
     </row>
     <row r="4" spans="1:26" ht="14.25">
-      <c r="A4" s="372" t="s">
+      <c r="A4" s="378" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="368" t="s">
+      <c r="B4" s="383" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="372" t="s">
+      <c r="C4" s="378" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="372"/>
-      <c r="E4" s="372"/>
-      <c r="F4" s="372"/>
-      <c r="G4" s="372"/>
-      <c r="H4" s="372"/>
-      <c r="I4" s="372"/>
-      <c r="J4" s="372"/>
-      <c r="K4" s="372"/>
-      <c r="L4" s="372"/>
-      <c r="M4" s="372"/>
-      <c r="N4" s="372"/>
-      <c r="O4" s="372" t="s">
+      <c r="D4" s="378"/>
+      <c r="E4" s="378"/>
+      <c r="F4" s="378"/>
+      <c r="G4" s="378"/>
+      <c r="H4" s="378"/>
+      <c r="I4" s="378"/>
+      <c r="J4" s="378"/>
+      <c r="K4" s="378"/>
+      <c r="L4" s="378"/>
+      <c r="M4" s="378"/>
+      <c r="N4" s="378"/>
+      <c r="O4" s="378" t="s">
         <v>186</v>
       </c>
-      <c r="P4" s="372"/>
-      <c r="Q4" s="372"/>
-      <c r="R4" s="372"/>
-      <c r="S4" s="372"/>
-      <c r="T4" s="372"/>
-      <c r="U4" s="372"/>
-      <c r="V4" s="372"/>
-      <c r="W4" s="372"/>
-      <c r="X4" s="372"/>
-      <c r="Y4" s="372"/>
-      <c r="Z4" s="372"/>
+      <c r="P4" s="378"/>
+      <c r="Q4" s="378"/>
+      <c r="R4" s="378"/>
+      <c r="S4" s="378"/>
+      <c r="T4" s="378"/>
+      <c r="U4" s="378"/>
+      <c r="V4" s="378"/>
+      <c r="W4" s="378"/>
+      <c r="X4" s="378"/>
+      <c r="Y4" s="378"/>
+      <c r="Z4" s="378"/>
     </row>
     <row r="5" spans="1:26" ht="14.25">
-      <c r="A5" s="372"/>
-      <c r="B5" s="369"/>
+      <c r="A5" s="378"/>
+      <c r="B5" s="384"/>
       <c r="C5" s="43">
         <v>1</v>
       </c>
@@ -21195,44 +21195,44 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.25">
-      <c r="A24" s="372" t="s">
+      <c r="A24" s="378" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="374" t="s">
+      <c r="B24" s="379" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="376" t="s">
+      <c r="C24" s="381" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="376"/>
-      <c r="E24" s="376"/>
-      <c r="F24" s="376"/>
-      <c r="G24" s="376"/>
-      <c r="H24" s="376"/>
-      <c r="I24" s="376"/>
-      <c r="J24" s="376"/>
-      <c r="K24" s="376"/>
-      <c r="L24" s="376"/>
-      <c r="M24" s="376"/>
-      <c r="N24" s="376"/>
-      <c r="O24" s="376" t="s">
+      <c r="D24" s="381"/>
+      <c r="E24" s="381"/>
+      <c r="F24" s="381"/>
+      <c r="G24" s="381"/>
+      <c r="H24" s="381"/>
+      <c r="I24" s="381"/>
+      <c r="J24" s="381"/>
+      <c r="K24" s="381"/>
+      <c r="L24" s="381"/>
+      <c r="M24" s="381"/>
+      <c r="N24" s="381"/>
+      <c r="O24" s="381" t="s">
         <v>204</v>
       </c>
-      <c r="P24" s="376"/>
-      <c r="Q24" s="376"/>
-      <c r="R24" s="376"/>
-      <c r="S24" s="376"/>
-      <c r="T24" s="376"/>
-      <c r="U24" s="376"/>
-      <c r="V24" s="376"/>
-      <c r="W24" s="376"/>
-      <c r="X24" s="376"/>
-      <c r="Y24" s="376"/>
-      <c r="Z24" s="376"/>
+      <c r="P24" s="381"/>
+      <c r="Q24" s="381"/>
+      <c r="R24" s="381"/>
+      <c r="S24" s="381"/>
+      <c r="T24" s="381"/>
+      <c r="U24" s="381"/>
+      <c r="V24" s="381"/>
+      <c r="W24" s="381"/>
+      <c r="X24" s="381"/>
+      <c r="Y24" s="381"/>
+      <c r="Z24" s="381"/>
     </row>
     <row r="25" spans="1:26" ht="14.25">
-      <c r="A25" s="372"/>
-      <c r="B25" s="375"/>
+      <c r="A25" s="378"/>
+      <c r="B25" s="380"/>
       <c r="C25" s="52">
         <v>1</v>
       </c>
@@ -22360,82 +22360,82 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="31.5">
-      <c r="A45" s="367" t="s">
+      <c r="A45" s="382" t="s">
         <v>214</v>
       </c>
-      <c r="B45" s="367"/>
-      <c r="C45" s="367"/>
-      <c r="D45" s="367"/>
-      <c r="E45" s="367"/>
-      <c r="F45" s="367"/>
-      <c r="G45" s="367"/>
-      <c r="H45" s="367"/>
-      <c r="I45" s="367"/>
-      <c r="J45" s="367"/>
-      <c r="K45" s="367"/>
-      <c r="L45" s="367"/>
-      <c r="M45" s="367"/>
-      <c r="N45" s="367"/>
-      <c r="O45" s="367"/>
-      <c r="P45" s="367"/>
-      <c r="Q45" s="367"/>
-      <c r="R45" s="367"/>
-      <c r="S45" s="367"/>
-      <c r="T45" s="367"/>
-      <c r="U45" s="367"/>
-      <c r="V45" s="367"/>
-      <c r="W45" s="367"/>
-      <c r="X45" s="367"/>
-      <c r="Y45" s="367"/>
-      <c r="Z45" s="367"/>
+      <c r="B45" s="382"/>
+      <c r="C45" s="382"/>
+      <c r="D45" s="382"/>
+      <c r="E45" s="382"/>
+      <c r="F45" s="382"/>
+      <c r="G45" s="382"/>
+      <c r="H45" s="382"/>
+      <c r="I45" s="382"/>
+      <c r="J45" s="382"/>
+      <c r="K45" s="382"/>
+      <c r="L45" s="382"/>
+      <c r="M45" s="382"/>
+      <c r="N45" s="382"/>
+      <c r="O45" s="382"/>
+      <c r="P45" s="382"/>
+      <c r="Q45" s="382"/>
+      <c r="R45" s="382"/>
+      <c r="S45" s="382"/>
+      <c r="T45" s="382"/>
+      <c r="U45" s="382"/>
+      <c r="V45" s="382"/>
+      <c r="W45" s="382"/>
+      <c r="X45" s="382"/>
+      <c r="Y45" s="382"/>
+      <c r="Z45" s="382"/>
     </row>
     <row r="46" spans="1:26" ht="14.25">
-      <c r="A46" s="368" t="s">
+      <c r="A46" s="383" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="368" t="s">
+      <c r="B46" s="383" t="s">
         <v>205</v>
       </c>
-      <c r="C46" s="370" t="s">
+      <c r="C46" s="385" t="s">
         <v>206</v>
       </c>
-      <c r="D46" s="371"/>
-      <c r="E46" s="370" t="s">
+      <c r="D46" s="386"/>
+      <c r="E46" s="385" t="s">
         <v>207</v>
       </c>
-      <c r="F46" s="371"/>
-      <c r="G46" s="370" t="s">
+      <c r="F46" s="386"/>
+      <c r="G46" s="385" t="s">
         <v>208</v>
       </c>
-      <c r="H46" s="371"/>
-      <c r="I46" s="368" t="s">
+      <c r="H46" s="386"/>
+      <c r="I46" s="383" t="s">
         <v>67</v>
       </c>
-      <c r="M46" s="372" t="s">
+      <c r="M46" s="378" t="s">
         <v>183</v>
       </c>
-      <c r="N46" s="372" t="s">
+      <c r="N46" s="378" t="s">
         <v>205</v>
       </c>
-      <c r="O46" s="372" t="s">
+      <c r="O46" s="378" t="s">
         <v>211</v>
       </c>
-      <c r="P46" s="372"/>
-      <c r="Q46" s="372" t="s">
+      <c r="P46" s="378"/>
+      <c r="Q46" s="378" t="s">
         <v>212</v>
       </c>
-      <c r="R46" s="372"/>
-      <c r="S46" s="372" t="s">
+      <c r="R46" s="378"/>
+      <c r="S46" s="378" t="s">
         <v>213</v>
       </c>
-      <c r="T46" s="372"/>
-      <c r="U46" s="372" t="s">
+      <c r="T46" s="378"/>
+      <c r="U46" s="378" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25">
-      <c r="A47" s="369"/>
-      <c r="B47" s="369"/>
+      <c r="A47" s="384"/>
+      <c r="B47" s="384"/>
       <c r="C47" s="43" t="s">
         <v>209</v>
       </c>
@@ -22454,9 +22454,9 @@
       <c r="H47" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="I47" s="369"/>
-      <c r="M47" s="372"/>
-      <c r="N47" s="372"/>
+      <c r="I47" s="384"/>
+      <c r="M47" s="378"/>
+      <c r="N47" s="378"/>
       <c r="O47" s="43" t="s">
         <v>209</v>
       </c>
@@ -22475,7 +22475,7 @@
       <c r="T47" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="U47" s="372"/>
+      <c r="U47" s="378"/>
     </row>
     <row r="48" spans="1:26" ht="14.25">
       <c r="A48" s="44" t="s">
@@ -23635,13 +23635,6 @@
     <protectedRange sqref="B26:Z40" name="区域1_1"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="C24:N24"/>
-    <mergeCell ref="O24:Z24"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
@@ -23658,6 +23651,13 @@
     <mergeCell ref="O4:Z4"/>
     <mergeCell ref="U46:U47"/>
     <mergeCell ref="A45:Z45"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="O24:Z24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23678,56 +23678,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="385" t="s">
+      <c r="A1" s="388" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="387"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="389"/>
+      <c r="H1" s="389"/>
+      <c r="I1" s="389"/>
+      <c r="J1" s="389"/>
+      <c r="K1" s="389"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
+      <c r="N1" s="390"/>
     </row>
     <row r="2" spans="1:14" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A2" s="388"/>
-      <c r="B2" s="389"/>
-      <c r="C2" s="389"/>
-      <c r="D2" s="389"/>
-      <c r="E2" s="389"/>
-      <c r="F2" s="389"/>
-      <c r="G2" s="389"/>
-      <c r="H2" s="389"/>
-      <c r="I2" s="389"/>
-      <c r="J2" s="389"/>
-      <c r="K2" s="389"/>
-      <c r="L2" s="389"/>
-      <c r="M2" s="389"/>
-      <c r="N2" s="390"/>
+      <c r="A2" s="391"/>
+      <c r="B2" s="392"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
+      <c r="J2" s="392"/>
+      <c r="K2" s="392"/>
+      <c r="L2" s="392"/>
+      <c r="M2" s="392"/>
+      <c r="N2" s="393"/>
     </row>
     <row r="3" spans="1:14" ht="25.5">
-      <c r="A3" s="378" t="s">
+      <c r="A3" s="398" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="378"/>
-      <c r="E3" s="378"/>
-      <c r="F3" s="378"/>
-      <c r="G3" s="378"/>
-      <c r="H3" s="378"/>
-      <c r="I3" s="378"/>
-      <c r="J3" s="378"/>
-      <c r="K3" s="378"/>
-      <c r="L3" s="378"/>
-      <c r="M3" s="378"/>
-      <c r="N3" s="378"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
+      <c r="L3" s="398"/>
+      <c r="M3" s="398"/>
+      <c r="N3" s="398"/>
     </row>
     <row r="4" spans="1:14" ht="31.5">
       <c r="A4" s="56"/>
@@ -23748,29 +23748,29 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" ht="14.25">
-      <c r="A5" s="379"/>
+      <c r="A5" s="394"/>
       <c r="B5" s="44"/>
-      <c r="C5" s="380" t="s">
+      <c r="C5" s="399" t="s">
         <v>218</v>
       </c>
-      <c r="D5" s="381"/>
-      <c r="E5" s="381"/>
-      <c r="F5" s="381"/>
-      <c r="G5" s="381"/>
-      <c r="H5" s="381"/>
-      <c r="I5" s="381"/>
-      <c r="J5" s="382"/>
-      <c r="K5" s="383" t="s">
+      <c r="D5" s="400"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="400"/>
+      <c r="H5" s="400"/>
+      <c r="I5" s="400"/>
+      <c r="J5" s="401"/>
+      <c r="K5" s="402" t="s">
         <v>219</v>
       </c>
-      <c r="L5" s="383"/>
-      <c r="M5" s="383"/>
-      <c r="N5" s="384" t="s">
+      <c r="L5" s="402"/>
+      <c r="M5" s="402"/>
+      <c r="N5" s="403" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.5">
-      <c r="A6" s="379"/>
+      <c r="A6" s="394"/>
       <c r="B6" s="60" t="s">
         <v>221</v>
       </c>
@@ -23807,10 +23807,10 @@
       <c r="M6" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="N6" s="384"/>
+      <c r="N6" s="403"/>
     </row>
     <row r="7" spans="1:14" ht="28.5">
-      <c r="A7" s="379" t="s">
+      <c r="A7" s="394" t="s">
         <v>233</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -23859,7 +23859,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.25">
-      <c r="A8" s="379"/>
+      <c r="A8" s="394"/>
       <c r="B8" s="63" t="s">
         <v>235</v>
       </c>
@@ -23906,7 +23906,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.25">
-      <c r="A9" s="379"/>
+      <c r="A9" s="394"/>
       <c r="B9" s="63" t="s">
         <v>236</v>
       </c>
@@ -23953,7 +23953,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.5">
-      <c r="A10" s="379"/>
+      <c r="A10" s="394"/>
       <c r="B10" s="63" t="s">
         <v>237</v>
       </c>
@@ -24000,7 +24000,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25">
-      <c r="A11" s="379"/>
+      <c r="A11" s="394"/>
       <c r="B11" s="63" t="s">
         <v>238</v>
       </c>
@@ -24047,7 +24047,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25">
-      <c r="A12" s="379"/>
+      <c r="A12" s="394"/>
       <c r="B12" s="63" t="s">
         <v>133</v>
       </c>
@@ -24094,7 +24094,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.25">
-      <c r="A13" s="379"/>
+      <c r="A13" s="394"/>
       <c r="B13" s="73" t="s">
         <v>239</v>
       </c>
@@ -24141,7 +24141,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.25">
-      <c r="A14" s="379"/>
+      <c r="A14" s="394"/>
       <c r="B14" s="73" t="s">
         <v>240</v>
       </c>
@@ -24195,7 +24195,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.5">
-      <c r="A15" s="379"/>
+      <c r="A15" s="394"/>
       <c r="B15" s="75" t="s">
         <v>241</v>
       </c>
@@ -24242,7 +24242,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="28.5">
-      <c r="A16" s="379"/>
+      <c r="A16" s="394"/>
       <c r="B16" s="75" t="s">
         <v>242</v>
       </c>
@@ -24289,7 +24289,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.25">
-      <c r="A17" s="379"/>
+      <c r="A17" s="394"/>
       <c r="B17" s="63" t="s">
         <v>243</v>
       </c>
@@ -24332,7 +24332,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.25">
-      <c r="A18" s="379"/>
+      <c r="A18" s="394"/>
       <c r="B18" s="44" t="s">
         <v>244</v>
       </c>
@@ -24386,7 +24386,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25">
-      <c r="A19" s="379" t="s">
+      <c r="A19" s="394" t="s">
         <v>245</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -24427,7 +24427,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25">
-      <c r="A20" s="379"/>
+      <c r="A20" s="394"/>
       <c r="B20" s="63" t="s">
         <v>247</v>
       </c>
@@ -24466,7 +24466,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.25">
-      <c r="A21" s="379"/>
+      <c r="A21" s="394"/>
       <c r="B21" s="79" t="s">
         <v>248</v>
       </c>
@@ -24505,7 +24505,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25">
-      <c r="A22" s="379"/>
+      <c r="A22" s="394"/>
       <c r="B22" s="79" t="s">
         <v>249</v>
       </c>
@@ -24544,7 +24544,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.25">
-      <c r="A23" s="379"/>
+      <c r="A23" s="394"/>
       <c r="B23" s="79" t="s">
         <v>250</v>
       </c>
@@ -24583,7 +24583,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.25">
-      <c r="A24" s="379"/>
+      <c r="A24" s="394"/>
       <c r="B24" s="63" t="s">
         <v>251</v>
       </c>
@@ -24622,7 +24622,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.25">
-      <c r="A25" s="379"/>
+      <c r="A25" s="394"/>
       <c r="B25" s="63" t="s">
         <v>252</v>
       </c>
@@ -24661,7 +24661,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.25">
-      <c r="A26" s="379"/>
+      <c r="A26" s="394"/>
       <c r="B26" s="63" t="s">
         <v>253</v>
       </c>
@@ -24700,7 +24700,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25">
-      <c r="A27" s="379"/>
+      <c r="A27" s="394"/>
       <c r="B27" s="63" t="s">
         <v>254</v>
       </c>
@@ -24739,7 +24739,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25">
-      <c r="A28" s="379"/>
+      <c r="A28" s="394"/>
       <c r="B28" s="63" t="s">
         <v>255</v>
       </c>
@@ -24778,7 +24778,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.25">
-      <c r="A29" s="379"/>
+      <c r="A29" s="394"/>
       <c r="B29" s="73" t="s">
         <v>239</v>
       </c>
@@ -24817,7 +24817,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.25">
-      <c r="A30" s="379"/>
+      <c r="A30" s="394"/>
       <c r="B30" s="73" t="s">
         <v>240</v>
       </c>
@@ -24871,7 +24871,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="28.5">
-      <c r="A31" s="379"/>
+      <c r="A31" s="394"/>
       <c r="B31" s="75" t="s">
         <v>241</v>
       </c>
@@ -24910,7 +24910,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="28.5">
-      <c r="A32" s="379"/>
+      <c r="A32" s="394"/>
       <c r="B32" s="75" t="s">
         <v>242</v>
       </c>
@@ -24949,7 +24949,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.25">
-      <c r="A33" s="379"/>
+      <c r="A33" s="394"/>
       <c r="B33" s="63" t="s">
         <v>256</v>
       </c>
@@ -24988,7 +24988,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.25">
-      <c r="A34" s="379"/>
+      <c r="A34" s="394"/>
       <c r="B34" s="44" t="s">
         <v>244</v>
       </c>
@@ -25042,7 +25042,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.25">
-      <c r="A35" s="379" t="s">
+      <c r="A35" s="394" t="s">
         <v>257</v>
       </c>
       <c r="B35" s="44" t="s">
@@ -25083,7 +25083,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.25">
-      <c r="A36" s="379"/>
+      <c r="A36" s="394"/>
       <c r="B36" s="44" t="s">
         <v>259</v>
       </c>
@@ -25122,7 +25122,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.25">
-      <c r="A37" s="379"/>
+      <c r="A37" s="394"/>
       <c r="B37" s="44" t="s">
         <v>260</v>
       </c>
@@ -25161,7 +25161,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.25">
-      <c r="A38" s="379"/>
+      <c r="A38" s="394"/>
       <c r="B38" s="44" t="s">
         <v>261</v>
       </c>
@@ -25200,7 +25200,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.25">
-      <c r="A39" s="379"/>
+      <c r="A39" s="394"/>
       <c r="B39" s="44" t="s">
         <v>262</v>
       </c>
@@ -25239,7 +25239,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25">
-      <c r="A40" s="379"/>
+      <c r="A40" s="394"/>
       <c r="B40" s="44" t="s">
         <v>239</v>
       </c>
@@ -25278,7 +25278,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="14.25">
-      <c r="A41" s="379"/>
+      <c r="A41" s="394"/>
       <c r="B41" s="73" t="s">
         <v>240</v>
       </c>
@@ -25332,7 +25332,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="28.5">
-      <c r="A42" s="379"/>
+      <c r="A42" s="394"/>
       <c r="B42" s="75" t="s">
         <v>241</v>
       </c>
@@ -25371,7 +25371,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="28.5">
-      <c r="A43" s="379"/>
+      <c r="A43" s="394"/>
       <c r="B43" s="75" t="s">
         <v>242</v>
       </c>
@@ -25410,7 +25410,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.25">
-      <c r="A44" s="379"/>
+      <c r="A44" s="394"/>
       <c r="B44" s="44" t="s">
         <v>256</v>
       </c>
@@ -25449,7 +25449,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.25">
-      <c r="A45" s="379"/>
+      <c r="A45" s="394"/>
       <c r="B45" s="44" t="s">
         <v>244</v>
       </c>
@@ -25503,7 +25503,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.25">
-      <c r="A46" s="391" t="s">
+      <c r="A46" s="395" t="s">
         <v>263</v>
       </c>
       <c r="B46" s="44" t="s">
@@ -25544,7 +25544,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="14.25">
-      <c r="A47" s="392"/>
+      <c r="A47" s="396"/>
       <c r="B47" s="44" t="s">
         <v>265</v>
       </c>
@@ -25583,7 +25583,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.25">
-      <c r="A48" s="392"/>
+      <c r="A48" s="396"/>
       <c r="B48" s="44" t="s">
         <v>266</v>
       </c>
@@ -25622,7 +25622,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="14.25">
-      <c r="A49" s="392"/>
+      <c r="A49" s="396"/>
       <c r="B49" s="44" t="s">
         <v>267</v>
       </c>
@@ -25661,7 +25661,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="14.25">
-      <c r="A50" s="392"/>
+      <c r="A50" s="396"/>
       <c r="B50" s="81" t="s">
         <v>268</v>
       </c>
@@ -25700,7 +25700,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="14.25">
-      <c r="A51" s="392"/>
+      <c r="A51" s="396"/>
       <c r="B51" s="44" t="s">
         <v>269</v>
       </c>
@@ -25739,7 +25739,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25">
-      <c r="A52" s="392"/>
+      <c r="A52" s="396"/>
       <c r="B52" s="44" t="s">
         <v>239</v>
       </c>
@@ -25778,7 +25778,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="14.25">
-      <c r="A53" s="392"/>
+      <c r="A53" s="396"/>
       <c r="B53" s="73" t="s">
         <v>240</v>
       </c>
@@ -25832,7 +25832,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="28.5">
-      <c r="A54" s="392"/>
+      <c r="A54" s="396"/>
       <c r="B54" s="75" t="s">
         <v>241</v>
       </c>
@@ -25871,7 +25871,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="28.5">
-      <c r="A55" s="392"/>
+      <c r="A55" s="396"/>
       <c r="B55" s="75" t="s">
         <v>242</v>
       </c>
@@ -25910,7 +25910,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="14.25">
-      <c r="A56" s="392"/>
+      <c r="A56" s="396"/>
       <c r="B56" s="44" t="s">
         <v>256</v>
       </c>
@@ -25949,7 +25949,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="14.25">
-      <c r="A57" s="392"/>
+      <c r="A57" s="396"/>
       <c r="B57" s="44" t="s">
         <v>244</v>
       </c>
@@ -26003,7 +26003,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="14.25">
-      <c r="A58" s="392"/>
+      <c r="A58" s="396"/>
       <c r="B58" s="44" t="s">
         <v>270</v>
       </c>
@@ -26042,7 +26042,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="14.25">
-      <c r="A59" s="379" t="s">
+      <c r="A59" s="394" t="s">
         <v>271</v>
       </c>
       <c r="B59" s="44" t="s">
@@ -26083,7 +26083,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="14.25">
-      <c r="A60" s="379"/>
+      <c r="A60" s="394"/>
       <c r="B60" s="73" t="s">
         <v>240</v>
       </c>
@@ -26137,7 +26137,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="28.5">
-      <c r="A61" s="379"/>
+      <c r="A61" s="394"/>
       <c r="B61" s="75" t="s">
         <v>241</v>
       </c>
@@ -26176,7 +26176,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="28.5">
-      <c r="A62" s="379"/>
+      <c r="A62" s="394"/>
       <c r="B62" s="75" t="s">
         <v>242</v>
       </c>
@@ -26215,7 +26215,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25">
-      <c r="A63" s="379"/>
+      <c r="A63" s="394"/>
       <c r="B63" s="44" t="s">
         <v>256</v>
       </c>
@@ -26254,7 +26254,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="14.25">
-      <c r="A64" s="379"/>
+      <c r="A64" s="394"/>
       <c r="B64" s="44" t="s">
         <v>244</v>
       </c>
@@ -26308,22 +26308,22 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="14.25">
-      <c r="A65" s="377" t="s">
+      <c r="A65" s="397" t="s">
         <v>272</v>
       </c>
-      <c r="B65" s="377"/>
-      <c r="C65" s="377"/>
-      <c r="D65" s="377"/>
-      <c r="E65" s="377"/>
-      <c r="F65" s="377"/>
-      <c r="G65" s="377"/>
-      <c r="H65" s="377"/>
-      <c r="I65" s="377"/>
-      <c r="J65" s="377"/>
-      <c r="K65" s="377"/>
-      <c r="L65" s="377"/>
-      <c r="M65" s="377"/>
-      <c r="N65" s="377"/>
+      <c r="B65" s="397"/>
+      <c r="C65" s="397"/>
+      <c r="D65" s="397"/>
+      <c r="E65" s="397"/>
+      <c r="F65" s="397"/>
+      <c r="G65" s="397"/>
+      <c r="H65" s="397"/>
+      <c r="I65" s="397"/>
+      <c r="J65" s="397"/>
+      <c r="K65" s="397"/>
+      <c r="L65" s="397"/>
+      <c r="M65" s="397"/>
+      <c r="N65" s="397"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -26332,11 +26332,6 @@
     <protectedRange sqref="C54:C56 E54:E56 C61:C63 E61:E63 C58:C59 E58:E59" name="区域3"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="A46:A58"/>
-    <mergeCell ref="A59:A64"/>
     <mergeCell ref="A65:N65"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:A6"/>
@@ -26344,6 +26339,11 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="A7:A18"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="A59:A64"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26366,24 +26366,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="404" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="394" t="s">
+      <c r="B1" s="405" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="394"/>
-      <c r="D1" s="394"/>
-      <c r="E1" s="394"/>
-      <c r="F1" s="394"/>
-      <c r="G1" s="394" t="s">
+      <c r="C1" s="405"/>
+      <c r="D1" s="405"/>
+      <c r="E1" s="405"/>
+      <c r="F1" s="405"/>
+      <c r="G1" s="405" t="s">
         <v>275</v>
       </c>
-      <c r="H1" s="394"/>
-      <c r="I1" s="394"/>
+      <c r="H1" s="405"/>
+      <c r="I1" s="405"/>
     </row>
     <row r="2" spans="1:12" ht="24.75" thickBot="1">
-      <c r="A2" s="393"/>
+      <c r="A2" s="404"/>
       <c r="B2" s="138" t="s">
         <v>276</v>
       </c>
@@ -26743,40 +26743,40 @@
     <row r="28" spans="1:13" ht="25.5" customHeight="1"/>
     <row r="29" spans="1:13" hidden="1"/>
     <row r="30" spans="1:13" ht="30" customHeight="1">
-      <c r="A30" s="396" t="s">
+      <c r="A30" s="407" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="397"/>
-      <c r="C30" s="397"/>
-      <c r="D30" s="397"/>
-      <c r="E30" s="397"/>
-      <c r="F30" s="397"/>
-      <c r="G30" s="397"/>
-      <c r="H30" s="397"/>
-      <c r="I30" s="397"/>
-      <c r="J30" s="397"/>
-      <c r="K30" s="397"/>
-      <c r="L30" s="397"/>
-      <c r="M30" s="397"/>
+      <c r="B30" s="408"/>
+      <c r="C30" s="408"/>
+      <c r="D30" s="408"/>
+      <c r="E30" s="408"/>
+      <c r="F30" s="408"/>
+      <c r="G30" s="408"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="408"/>
+      <c r="J30" s="408"/>
+      <c r="K30" s="408"/>
+      <c r="L30" s="408"/>
+      <c r="M30" s="408"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="84"/>
-      <c r="B31" s="395" t="s">
+      <c r="B31" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="395"/>
-      <c r="D31" s="395"/>
-      <c r="E31" s="395"/>
-      <c r="F31" s="395"/>
-      <c r="G31" s="395"/>
-      <c r="H31" s="395"/>
-      <c r="I31" s="395"/>
-      <c r="J31" s="395"/>
-      <c r="K31" s="395" t="s">
+      <c r="C31" s="406"/>
+      <c r="D31" s="406"/>
+      <c r="E31" s="406"/>
+      <c r="F31" s="406"/>
+      <c r="G31" s="406"/>
+      <c r="H31" s="406"/>
+      <c r="I31" s="406"/>
+      <c r="J31" s="406"/>
+      <c r="K31" s="406" t="s">
         <v>0</v>
       </c>
-      <c r="L31" s="395"/>
-      <c r="M31" s="395"/>
+      <c r="L31" s="406"/>
+      <c r="M31" s="406"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="88" t="s">
@@ -27309,67 +27309,67 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="44.25" customHeight="1">
-      <c r="B2" s="407" t="s">
+      <c r="B2" s="409" t="s">
         <v>892</v>
       </c>
-      <c r="C2" s="405" t="s">
+      <c r="C2" s="411" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="406"/>
-      <c r="E2" s="405" t="s">
+      <c r="D2" s="412"/>
+      <c r="E2" s="411" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="406"/>
-      <c r="G2" s="409" t="s">
+      <c r="F2" s="412"/>
+      <c r="G2" s="416" t="s">
         <v>867</v>
       </c>
-      <c r="H2" s="409"/>
-      <c r="I2" s="410" t="s">
+      <c r="H2" s="416"/>
+      <c r="I2" s="413" t="s">
         <v>868</v>
       </c>
-      <c r="J2" s="410"/>
-      <c r="K2" s="410"/>
-      <c r="L2" s="410" t="s">
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413" t="s">
         <v>869</v>
       </c>
-      <c r="M2" s="410"/>
-      <c r="N2" s="410"/>
-      <c r="O2" s="410" t="s">
+      <c r="M2" s="413"/>
+      <c r="N2" s="413"/>
+      <c r="O2" s="413" t="s">
         <v>870</v>
       </c>
-      <c r="P2" s="410"/>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="410" t="s">
+      <c r="P2" s="413"/>
+      <c r="Q2" s="413"/>
+      <c r="R2" s="413" t="s">
         <v>871</v>
       </c>
-      <c r="S2" s="410"/>
-      <c r="T2" s="410"/>
-      <c r="U2" s="410" t="s">
+      <c r="S2" s="413"/>
+      <c r="T2" s="413"/>
+      <c r="U2" s="413" t="s">
         <v>872</v>
       </c>
-      <c r="V2" s="410"/>
-      <c r="W2" s="410"/>
-      <c r="X2" s="410" t="s">
+      <c r="V2" s="413"/>
+      <c r="W2" s="413"/>
+      <c r="X2" s="413" t="s">
         <v>873</v>
       </c>
-      <c r="Y2" s="410"/>
-      <c r="Z2" s="410"/>
-      <c r="AA2" s="410" t="s">
+      <c r="Y2" s="413"/>
+      <c r="Z2" s="413"/>
+      <c r="AA2" s="413" t="s">
         <v>874</v>
       </c>
-      <c r="AB2" s="410"/>
-      <c r="AC2" s="410"/>
-      <c r="AD2" s="411" t="s">
+      <c r="AB2" s="413"/>
+      <c r="AC2" s="413"/>
+      <c r="AD2" s="414" t="s">
         <v>875</v>
       </c>
-      <c r="AE2" s="412"/>
-      <c r="AF2" s="405" t="s">
+      <c r="AE2" s="415"/>
+      <c r="AF2" s="411" t="s">
         <v>876</v>
       </c>
-      <c r="AG2" s="406"/>
+      <c r="AG2" s="412"/>
     </row>
     <row r="3" spans="1:33" ht="22.5">
-      <c r="B3" s="408"/>
+      <c r="B3" s="410"/>
       <c r="C3" s="296" t="s">
         <v>351</v>
       </c>
@@ -28183,68 +28183,68 @@
     </row>
     <row r="24" spans="1:33" ht="43.5" customHeight="1">
       <c r="A24" s="301"/>
-      <c r="B24" s="407" t="s">
+      <c r="B24" s="409" t="s">
         <v>866</v>
       </c>
-      <c r="C24" s="405" t="s">
+      <c r="C24" s="411" t="s">
         <v>348</v>
       </c>
-      <c r="D24" s="406"/>
-      <c r="E24" s="405" t="s">
+      <c r="D24" s="412"/>
+      <c r="E24" s="411" t="s">
         <v>349</v>
       </c>
-      <c r="F24" s="406"/>
-      <c r="G24" s="409" t="s">
+      <c r="F24" s="412"/>
+      <c r="G24" s="416" t="s">
         <v>867</v>
       </c>
-      <c r="H24" s="409"/>
-      <c r="I24" s="410" t="s">
+      <c r="H24" s="416"/>
+      <c r="I24" s="413" t="s">
         <v>868</v>
       </c>
-      <c r="J24" s="410"/>
-      <c r="K24" s="410"/>
-      <c r="L24" s="410" t="s">
+      <c r="J24" s="413"/>
+      <c r="K24" s="413"/>
+      <c r="L24" s="413" t="s">
         <v>869</v>
       </c>
-      <c r="M24" s="410"/>
-      <c r="N24" s="410"/>
-      <c r="O24" s="410" t="s">
+      <c r="M24" s="413"/>
+      <c r="N24" s="413"/>
+      <c r="O24" s="413" t="s">
         <v>870</v>
       </c>
-      <c r="P24" s="410"/>
-      <c r="Q24" s="410"/>
-      <c r="R24" s="410" t="s">
+      <c r="P24" s="413"/>
+      <c r="Q24" s="413"/>
+      <c r="R24" s="413" t="s">
         <v>871</v>
       </c>
-      <c r="S24" s="410"/>
-      <c r="T24" s="410"/>
-      <c r="U24" s="410" t="s">
+      <c r="S24" s="413"/>
+      <c r="T24" s="413"/>
+      <c r="U24" s="413" t="s">
         <v>872</v>
       </c>
-      <c r="V24" s="410"/>
-      <c r="W24" s="410"/>
-      <c r="X24" s="410" t="s">
+      <c r="V24" s="413"/>
+      <c r="W24" s="413"/>
+      <c r="X24" s="413" t="s">
         <v>873</v>
       </c>
-      <c r="Y24" s="410"/>
-      <c r="Z24" s="410"/>
-      <c r="AA24" s="410" t="s">
+      <c r="Y24" s="413"/>
+      <c r="Z24" s="413"/>
+      <c r="AA24" s="413" t="s">
         <v>874</v>
       </c>
-      <c r="AB24" s="410"/>
-      <c r="AC24" s="410"/>
-      <c r="AD24" s="411" t="s">
+      <c r="AB24" s="413"/>
+      <c r="AC24" s="413"/>
+      <c r="AD24" s="414" t="s">
         <v>875</v>
       </c>
-      <c r="AE24" s="412"/>
-      <c r="AF24" s="405" t="s">
+      <c r="AE24" s="415"/>
+      <c r="AF24" s="411" t="s">
         <v>876</v>
       </c>
-      <c r="AG24" s="406"/>
+      <c r="AG24" s="412"/>
     </row>
     <row r="25" spans="1:33" ht="22.5">
       <c r="A25" s="301"/>
-      <c r="B25" s="408"/>
+      <c r="B25" s="410"/>
       <c r="C25" s="296" t="s">
         <v>351</v>
       </c>
@@ -28340,7 +28340,7 @@
       </c>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="404"/>
+      <c r="A26" s="420"/>
       <c r="B26" s="298"/>
       <c r="C26" s="298"/>
       <c r="D26" s="299"/>
@@ -28378,7 +28378,7 @@
       <c r="AG26" s="305"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="404"/>
+      <c r="A27" s="420"/>
       <c r="B27" s="298"/>
       <c r="C27" s="298"/>
       <c r="D27" s="299"/>
@@ -28413,7 +28413,7 @@
       <c r="AG27" s="305"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="404"/>
+      <c r="A28" s="420"/>
       <c r="B28" s="298"/>
       <c r="C28" s="298"/>
       <c r="D28" s="299"/>
@@ -28448,7 +28448,7 @@
       <c r="AG28" s="305"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="404"/>
+      <c r="A29" s="420"/>
       <c r="B29" s="298"/>
       <c r="C29" s="298"/>
       <c r="D29" s="299"/>
@@ -28483,7 +28483,7 @@
       <c r="AG29" s="305"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="A30" s="404"/>
+      <c r="A30" s="420"/>
       <c r="B30" s="298"/>
       <c r="C30" s="298"/>
       <c r="D30" s="299"/>
@@ -28518,7 +28518,7 @@
       <c r="AG30" s="305"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="A31" s="404"/>
+      <c r="A31" s="420"/>
       <c r="B31" s="298"/>
       <c r="C31" s="298"/>
       <c r="D31" s="299"/>
@@ -28553,7 +28553,7 @@
       <c r="AG31" s="305"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="A32" s="404"/>
+      <c r="A32" s="420"/>
       <c r="B32" s="298"/>
       <c r="C32" s="298"/>
       <c r="D32" s="299"/>
@@ -28588,7 +28588,7 @@
       <c r="AG32" s="305"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="A33" s="404"/>
+      <c r="A33" s="420"/>
       <c r="B33" s="298"/>
       <c r="C33" s="298"/>
       <c r="D33" s="299"/>
@@ -28623,7 +28623,7 @@
       <c r="AG33" s="305"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="A34" s="404"/>
+      <c r="A34" s="420"/>
       <c r="B34" s="305"/>
       <c r="C34" s="305"/>
       <c r="D34" s="305"/>
@@ -28664,52 +28664,52 @@
     </row>
     <row r="38" spans="1:33" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="398" t="s">
+      <c r="B38" s="418" t="s">
         <v>866</v>
       </c>
-      <c r="C38" s="398" t="s">
+      <c r="C38" s="418" t="s">
         <v>880</v>
       </c>
-      <c r="D38" s="398" t="s">
+      <c r="D38" s="418" t="s">
         <v>881</v>
       </c>
-      <c r="E38" s="403" t="s">
+      <c r="E38" s="417" t="s">
         <v>882</v>
       </c>
-      <c r="F38" s="403" t="s">
+      <c r="F38" s="417" t="s">
         <v>883</v>
       </c>
-      <c r="G38" s="403"/>
-      <c r="H38" s="403"/>
-      <c r="I38" s="403" t="s">
+      <c r="G38" s="417"/>
+      <c r="H38" s="417"/>
+      <c r="I38" s="417" t="s">
         <v>884</v>
       </c>
-      <c r="J38" s="403"/>
-      <c r="K38" s="403"/>
-      <c r="L38" s="403" t="s">
+      <c r="J38" s="417"/>
+      <c r="K38" s="417"/>
+      <c r="L38" s="417" t="s">
         <v>885</v>
       </c>
-      <c r="M38" s="403"/>
-      <c r="N38" s="403"/>
-      <c r="O38" s="403" t="s">
+      <c r="M38" s="417"/>
+      <c r="N38" s="417"/>
+      <c r="O38" s="417" t="s">
         <v>886</v>
       </c>
-      <c r="P38" s="398" t="s">
+      <c r="P38" s="418" t="s">
         <v>887</v>
       </c>
-      <c r="Q38" s="398" t="s">
+      <c r="Q38" s="418" t="s">
         <v>350</v>
       </c>
-      <c r="R38" s="398" t="s">
+      <c r="R38" s="418" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="399"/>
-      <c r="C39" s="399"/>
-      <c r="D39" s="399"/>
-      <c r="E39" s="403"/>
+      <c r="B39" s="419"/>
+      <c r="C39" s="419"/>
+      <c r="D39" s="419"/>
+      <c r="E39" s="417"/>
       <c r="F39" s="306" t="s">
         <v>889</v>
       </c>
@@ -28737,13 +28737,13 @@
       <c r="N39" s="306" t="s">
         <v>891</v>
       </c>
-      <c r="O39" s="403"/>
-      <c r="P39" s="399"/>
-      <c r="Q39" s="399"/>
-      <c r="R39" s="399"/>
+      <c r="O39" s="417"/>
+      <c r="P39" s="419"/>
+      <c r="Q39" s="419"/>
+      <c r="R39" s="419"/>
     </row>
     <row r="40" spans="1:33" s="18" customFormat="1">
-      <c r="A40" s="400"/>
+      <c r="A40" s="421"/>
       <c r="B40" s="307"/>
       <c r="C40" s="308"/>
       <c r="D40" s="309"/>
@@ -28768,7 +28768,7 @@
       <c r="T40" s="312"/>
     </row>
     <row r="41" spans="1:33" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="401"/>
+      <c r="A41" s="422"/>
       <c r="B41" s="307"/>
       <c r="C41" s="308"/>
       <c r="D41" s="309"/>
@@ -28789,7 +28789,7 @@
       <c r="T41" s="312"/>
     </row>
     <row r="42" spans="1:33" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="401"/>
+      <c r="A42" s="422"/>
       <c r="B42" s="307"/>
       <c r="C42" s="308"/>
       <c r="D42" s="309"/>
@@ -28810,7 +28810,7 @@
       <c r="T42" s="312"/>
     </row>
     <row r="43" spans="1:33" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="401"/>
+      <c r="A43" s="422"/>
       <c r="B43" s="307"/>
       <c r="C43" s="308"/>
       <c r="D43" s="309"/>
@@ -28831,7 +28831,7 @@
       <c r="T43" s="312"/>
     </row>
     <row r="44" spans="1:33" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="401"/>
+      <c r="A44" s="422"/>
       <c r="B44" s="307"/>
       <c r="C44" s="308"/>
       <c r="D44" s="309"/>
@@ -28853,7 +28853,7 @@
       <c r="T44" s="312"/>
     </row>
     <row r="45" spans="1:33" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="401"/>
+      <c r="A45" s="422"/>
       <c r="B45" s="307"/>
       <c r="C45" s="308"/>
       <c r="D45" s="309"/>
@@ -28875,7 +28875,7 @@
       <c r="U45" s="312"/>
     </row>
     <row r="46" spans="1:33" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="401"/>
+      <c r="A46" s="422"/>
       <c r="B46" s="307"/>
       <c r="C46" s="308"/>
       <c r="D46" s="309"/>
@@ -28896,7 +28896,7 @@
       <c r="T46" s="312"/>
     </row>
     <row r="47" spans="1:33" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="401"/>
+      <c r="A47" s="422"/>
       <c r="B47" s="307"/>
       <c r="C47" s="308"/>
       <c r="D47" s="309"/>
@@ -28917,7 +28917,7 @@
       <c r="T47" s="312"/>
     </row>
     <row r="48" spans="1:33" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="401"/>
+      <c r="A48" s="422"/>
       <c r="B48" s="307"/>
       <c r="C48" s="308"/>
       <c r="D48" s="309"/>
@@ -28939,7 +28939,7 @@
       <c r="T48" s="312"/>
     </row>
     <row r="49" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="402"/>
+      <c r="A49" s="423"/>
       <c r="B49" s="307"/>
       <c r="C49" s="308"/>
       <c r="D49" s="309"/>
@@ -28961,51 +28961,51 @@
       <c r="U49" s="312"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="B51" s="398" t="s">
+      <c r="B51" s="418" t="s">
         <v>892</v>
       </c>
-      <c r="C51" s="398" t="s">
+      <c r="C51" s="418" t="s">
         <v>880</v>
       </c>
-      <c r="D51" s="398" t="s">
+      <c r="D51" s="418" t="s">
         <v>881</v>
       </c>
-      <c r="E51" s="403" t="s">
+      <c r="E51" s="417" t="s">
         <v>893</v>
       </c>
-      <c r="F51" s="403" t="s">
+      <c r="F51" s="417" t="s">
         <v>883</v>
       </c>
-      <c r="G51" s="403"/>
-      <c r="H51" s="403"/>
-      <c r="I51" s="403" t="s">
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="I51" s="417" t="s">
         <v>884</v>
       </c>
-      <c r="J51" s="403"/>
-      <c r="K51" s="403"/>
-      <c r="L51" s="403" t="s">
+      <c r="J51" s="417"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417" t="s">
         <v>885</v>
       </c>
-      <c r="M51" s="403"/>
-      <c r="N51" s="403"/>
-      <c r="O51" s="403" t="s">
+      <c r="M51" s="417"/>
+      <c r="N51" s="417"/>
+      <c r="O51" s="417" t="s">
         <v>886</v>
       </c>
-      <c r="P51" s="398" t="s">
+      <c r="P51" s="418" t="s">
         <v>887</v>
       </c>
-      <c r="Q51" s="398" t="s">
+      <c r="Q51" s="418" t="s">
         <v>350</v>
       </c>
-      <c r="R51" s="398" t="s">
+      <c r="R51" s="418" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="22.5">
-      <c r="B52" s="399"/>
-      <c r="C52" s="399"/>
-      <c r="D52" s="399"/>
-      <c r="E52" s="403"/>
+      <c r="B52" s="419"/>
+      <c r="C52" s="419"/>
+      <c r="D52" s="419"/>
+      <c r="E52" s="417"/>
       <c r="F52" s="306" t="s">
         <v>889</v>
       </c>
@@ -29033,10 +29033,10 @@
       <c r="N52" s="306" t="s">
         <v>891</v>
       </c>
-      <c r="O52" s="403"/>
-      <c r="P52" s="399"/>
-      <c r="Q52" s="399"/>
-      <c r="R52" s="399"/>
+      <c r="O52" s="417"/>
+      <c r="P52" s="419"/>
+      <c r="Q52" s="419"/>
+      <c r="R52" s="419"/>
     </row>
     <row r="53" spans="1:21">
       <c r="B53" s="314" t="s">
@@ -29379,16 +29379,30 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:D24"/>
@@ -29405,30 +29419,16 @@
     <mergeCell ref="AF24:AG24"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29452,48 +29452,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A1" s="416" t="s">
+      <c r="A1" s="426" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="416"/>
-      <c r="C1" s="416"/>
-      <c r="D1" s="416"/>
-      <c r="E1" s="416"/>
-      <c r="F1" s="416"/>
-      <c r="G1" s="416"/>
-      <c r="H1" s="416"/>
-      <c r="I1" s="416"/>
-      <c r="J1" s="416"/>
-      <c r="K1" s="416"/>
-      <c r="L1" s="416"/>
-      <c r="M1" s="416"/>
-      <c r="N1" s="416"/>
+      <c r="B1" s="426"/>
+      <c r="C1" s="426"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
+      <c r="N1" s="426"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A2" s="414" t="s">
+      <c r="A2" s="427" t="s">
         <v>359</v>
       </c>
-      <c r="B2" s="414" t="s">
+      <c r="B2" s="427" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="415" t="s">
+      <c r="C2" s="424" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="415"/>
-      <c r="E2" s="415"/>
-      <c r="F2" s="415"/>
-      <c r="G2" s="415"/>
-      <c r="H2" s="415"/>
-      <c r="I2" s="415"/>
-      <c r="J2" s="415"/>
-      <c r="K2" s="415"/>
-      <c r="L2" s="415"/>
-      <c r="M2" s="415"/>
-      <c r="N2" s="415"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="424"/>
+      <c r="F2" s="424"/>
+      <c r="G2" s="424"/>
+      <c r="H2" s="424"/>
+      <c r="I2" s="424"/>
+      <c r="J2" s="424"/>
+      <c r="K2" s="424"/>
+      <c r="L2" s="424"/>
+      <c r="M2" s="424"/>
+      <c r="N2" s="424"/>
     </row>
     <row r="3" spans="1:14" s="115" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="414"/>
-      <c r="B3" s="414"/>
+      <c r="A3" s="427"/>
+      <c r="B3" s="427"/>
       <c r="C3" s="113" t="s">
         <v>338</v>
       </c>
@@ -29532,7 +29532,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="413" t="s">
+      <c r="A4" s="425" t="s">
         <v>454</v>
       </c>
       <c r="B4" s="114" t="s">
@@ -29552,7 +29552,7 @@
       <c r="N4" s="112"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="413"/>
+      <c r="A5" s="425"/>
       <c r="B5" s="114" t="s">
         <v>355</v>
       </c>
@@ -29570,7 +29570,7 @@
       <c r="N5" s="112"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="413"/>
+      <c r="A6" s="425"/>
       <c r="B6" s="114" t="s">
         <v>354</v>
       </c>
@@ -29588,7 +29588,7 @@
       <c r="N6" s="112"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="413"/>
+      <c r="A7" s="425"/>
       <c r="B7" s="113" t="s">
         <v>13</v>
       </c>
@@ -29606,7 +29606,7 @@
       <c r="N7" s="112"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="413" t="s">
+      <c r="A8" s="425" t="s">
         <v>455</v>
       </c>
       <c r="B8" s="114" t="s">
@@ -29626,7 +29626,7 @@
       <c r="N8" s="112"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="413"/>
+      <c r="A9" s="425"/>
       <c r="B9" s="114" t="s">
         <v>355</v>
       </c>
@@ -29644,7 +29644,7 @@
       <c r="N9" s="112"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="413"/>
+      <c r="A10" s="425"/>
       <c r="B10" s="114" t="s">
         <v>354</v>
       </c>
@@ -29662,7 +29662,7 @@
       <c r="N10" s="112"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="413"/>
+      <c r="A11" s="425"/>
       <c r="B11" s="113" t="s">
         <v>13</v>
       </c>
@@ -29680,7 +29680,7 @@
       <c r="N11" s="112"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="413" t="s">
+      <c r="A12" s="425" t="s">
         <v>456</v>
       </c>
       <c r="B12" s="114" t="s">
@@ -29700,7 +29700,7 @@
       <c r="N12" s="112"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="413"/>
+      <c r="A13" s="425"/>
       <c r="B13" s="114" t="s">
         <v>355</v>
       </c>
@@ -29718,7 +29718,7 @@
       <c r="N13" s="112"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="413"/>
+      <c r="A14" s="425"/>
       <c r="B14" s="114" t="s">
         <v>354</v>
       </c>
@@ -29736,7 +29736,7 @@
       <c r="N14" s="112"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="413"/>
+      <c r="A15" s="425"/>
       <c r="B15" s="113" t="s">
         <v>13</v>
       </c>
@@ -29754,7 +29754,7 @@
       <c r="N15" s="112"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="413" t="s">
+      <c r="A16" s="425" t="s">
         <v>457</v>
       </c>
       <c r="B16" s="114" t="s">
@@ -29774,7 +29774,7 @@
       <c r="N16" s="112"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="413"/>
+      <c r="A17" s="425"/>
       <c r="B17" s="114" t="s">
         <v>355</v>
       </c>
@@ -29792,7 +29792,7 @@
       <c r="N17" s="112"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="413"/>
+      <c r="A18" s="425"/>
       <c r="B18" s="114" t="s">
         <v>354</v>
       </c>
@@ -29810,7 +29810,7 @@
       <c r="N18" s="112"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="413"/>
+      <c r="A19" s="425"/>
       <c r="B19" s="113" t="s">
         <v>13</v>
       </c>
@@ -29828,7 +29828,7 @@
       <c r="N19" s="112"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="413" t="s">
+      <c r="A20" s="425" t="s">
         <v>458</v>
       </c>
       <c r="B20" s="114" t="s">
@@ -29848,7 +29848,7 @@
       <c r="N20" s="112"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="413"/>
+      <c r="A21" s="425"/>
       <c r="B21" s="114" t="s">
         <v>355</v>
       </c>
@@ -29866,7 +29866,7 @@
       <c r="N21" s="112"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="413"/>
+      <c r="A22" s="425"/>
       <c r="B22" s="114" t="s">
         <v>354</v>
       </c>
@@ -29884,7 +29884,7 @@
       <c r="N22" s="112"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="413"/>
+      <c r="A23" s="425"/>
       <c r="B23" s="113" t="s">
         <v>13</v>
       </c>
@@ -29902,48 +29902,48 @@
       <c r="N23" s="112"/>
     </row>
     <row r="25" spans="1:14" ht="24" customHeight="1">
-      <c r="A25" s="416" t="s">
+      <c r="A25" s="426" t="s">
         <v>451</v>
       </c>
-      <c r="B25" s="416"/>
-      <c r="C25" s="416"/>
-      <c r="D25" s="416"/>
-      <c r="E25" s="416"/>
-      <c r="F25" s="416"/>
-      <c r="G25" s="416"/>
-      <c r="H25" s="416"/>
-      <c r="I25" s="416"/>
-      <c r="J25" s="416"/>
-      <c r="K25" s="416"/>
-      <c r="L25" s="416"/>
-      <c r="M25" s="416"/>
-      <c r="N25" s="416"/>
+      <c r="B25" s="426"/>
+      <c r="C25" s="426"/>
+      <c r="D25" s="426"/>
+      <c r="E25" s="426"/>
+      <c r="F25" s="426"/>
+      <c r="G25" s="426"/>
+      <c r="H25" s="426"/>
+      <c r="I25" s="426"/>
+      <c r="J25" s="426"/>
+      <c r="K25" s="426"/>
+      <c r="L25" s="426"/>
+      <c r="M25" s="426"/>
+      <c r="N25" s="426"/>
     </row>
     <row r="26" spans="1:14" ht="24" customHeight="1">
-      <c r="A26" s="414" t="s">
+      <c r="A26" s="427" t="s">
         <v>359</v>
       </c>
-      <c r="B26" s="414" t="s">
+      <c r="B26" s="427" t="s">
         <v>358</v>
       </c>
-      <c r="C26" s="415" t="s">
+      <c r="C26" s="424" t="s">
         <v>357</v>
       </c>
-      <c r="D26" s="415"/>
-      <c r="E26" s="415"/>
-      <c r="F26" s="415"/>
-      <c r="G26" s="415"/>
-      <c r="H26" s="415"/>
-      <c r="I26" s="415"/>
-      <c r="J26" s="415"/>
-      <c r="K26" s="415"/>
-      <c r="L26" s="415"/>
-      <c r="M26" s="415"/>
-      <c r="N26" s="415"/>
+      <c r="D26" s="424"/>
+      <c r="E26" s="424"/>
+      <c r="F26" s="424"/>
+      <c r="G26" s="424"/>
+      <c r="H26" s="424"/>
+      <c r="I26" s="424"/>
+      <c r="J26" s="424"/>
+      <c r="K26" s="424"/>
+      <c r="L26" s="424"/>
+      <c r="M26" s="424"/>
+      <c r="N26" s="424"/>
     </row>
     <row r="27" spans="1:14" s="115" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="414"/>
-      <c r="B27" s="414"/>
+      <c r="A27" s="427"/>
+      <c r="B27" s="427"/>
       <c r="C27" s="113" t="s">
         <v>338</v>
       </c>
@@ -29982,7 +29982,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="413" t="s">
+      <c r="A28" s="425" t="s">
         <v>459</v>
       </c>
       <c r="B28" s="114" t="s">
@@ -30002,7 +30002,7 @@
       <c r="N28" s="112"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="413"/>
+      <c r="A29" s="425"/>
       <c r="B29" s="114" t="s">
         <v>355</v>
       </c>
@@ -30020,7 +30020,7 @@
       <c r="N29" s="112"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="413"/>
+      <c r="A30" s="425"/>
       <c r="B30" s="114" t="s">
         <v>354</v>
       </c>
@@ -30038,7 +30038,7 @@
       <c r="N30" s="112"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="413"/>
+      <c r="A31" s="425"/>
       <c r="B31" s="113" t="s">
         <v>13</v>
       </c>
@@ -30056,7 +30056,7 @@
       <c r="N31" s="112"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="413" t="s">
+      <c r="A32" s="425" t="s">
         <v>460</v>
       </c>
       <c r="B32" s="114" t="s">
@@ -30076,7 +30076,7 @@
       <c r="N32" s="112"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="413"/>
+      <c r="A33" s="425"/>
       <c r="B33" s="114" t="s">
         <v>355</v>
       </c>
@@ -30094,7 +30094,7 @@
       <c r="N33" s="112"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="413"/>
+      <c r="A34" s="425"/>
       <c r="B34" s="114" t="s">
         <v>354</v>
       </c>
@@ -30112,7 +30112,7 @@
       <c r="N34" s="112"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="413"/>
+      <c r="A35" s="425"/>
       <c r="B35" s="113" t="s">
         <v>13</v>
       </c>
@@ -30130,7 +30130,7 @@
       <c r="N35" s="112"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="413" t="s">
+      <c r="A36" s="425" t="s">
         <v>461</v>
       </c>
       <c r="B36" s="114" t="s">
@@ -30150,7 +30150,7 @@
       <c r="N36" s="112"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="413"/>
+      <c r="A37" s="425"/>
       <c r="B37" s="114" t="s">
         <v>355</v>
       </c>
@@ -30168,7 +30168,7 @@
       <c r="N37" s="112"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="413"/>
+      <c r="A38" s="425"/>
       <c r="B38" s="114" t="s">
         <v>354</v>
       </c>
@@ -30186,7 +30186,7 @@
       <c r="N38" s="112"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="413"/>
+      <c r="A39" s="425"/>
       <c r="B39" s="113" t="s">
         <v>13</v>
       </c>
@@ -30204,7 +30204,7 @@
       <c r="N39" s="112"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="413" t="s">
+      <c r="A40" s="425" t="s">
         <v>462</v>
       </c>
       <c r="B40" s="114" t="s">
@@ -30224,7 +30224,7 @@
       <c r="N40" s="112"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="413"/>
+      <c r="A41" s="425"/>
       <c r="B41" s="114" t="s">
         <v>355</v>
       </c>
@@ -30242,7 +30242,7 @@
       <c r="N41" s="112"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="413"/>
+      <c r="A42" s="425"/>
       <c r="B42" s="114" t="s">
         <v>354</v>
       </c>
@@ -30260,7 +30260,7 @@
       <c r="N42" s="112"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="413"/>
+      <c r="A43" s="425"/>
       <c r="B43" s="113" t="s">
         <v>13</v>
       </c>
@@ -30278,7 +30278,7 @@
       <c r="N43" s="112"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="413" t="s">
+      <c r="A44" s="425" t="s">
         <v>463</v>
       </c>
       <c r="B44" s="114" t="s">
@@ -30298,7 +30298,7 @@
       <c r="N44" s="112"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="413"/>
+      <c r="A45" s="425"/>
       <c r="B45" s="114" t="s">
         <v>355</v>
       </c>
@@ -30316,7 +30316,7 @@
       <c r="N45" s="112"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="413"/>
+      <c r="A46" s="425"/>
       <c r="B46" s="114" t="s">
         <v>354</v>
       </c>
@@ -30334,7 +30334,7 @@
       <c r="N46" s="112"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="413"/>
+      <c r="A47" s="425"/>
       <c r="B47" s="113" t="s">
         <v>13</v>
       </c>
@@ -30366,6 +30366,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:N26"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A25:N25"/>
@@ -30379,11 +30384,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30407,48 +30407,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1">
-      <c r="A1" s="419" t="s">
+      <c r="A1" s="430" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="416"/>
-      <c r="C1" s="416"/>
-      <c r="D1" s="416"/>
-      <c r="E1" s="416"/>
-      <c r="F1" s="416"/>
-      <c r="G1" s="416"/>
-      <c r="H1" s="416"/>
-      <c r="I1" s="416"/>
-      <c r="J1" s="416"/>
-      <c r="K1" s="416"/>
-      <c r="L1" s="416"/>
-      <c r="M1" s="416"/>
-      <c r="N1" s="416"/>
+      <c r="B1" s="426"/>
+      <c r="C1" s="426"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
+      <c r="F1" s="426"/>
+      <c r="G1" s="426"/>
+      <c r="H1" s="426"/>
+      <c r="I1" s="426"/>
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="426"/>
+      <c r="M1" s="426"/>
+      <c r="N1" s="426"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A2" s="414" t="s">
+      <c r="A2" s="427" t="s">
         <v>359</v>
       </c>
-      <c r="B2" s="414" t="s">
+      <c r="B2" s="427" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="415" t="s">
+      <c r="C2" s="424" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="415"/>
-      <c r="E2" s="415"/>
-      <c r="F2" s="415"/>
-      <c r="G2" s="415"/>
-      <c r="H2" s="415"/>
-      <c r="I2" s="415"/>
-      <c r="J2" s="415"/>
-      <c r="K2" s="415"/>
-      <c r="L2" s="415"/>
-      <c r="M2" s="415"/>
-      <c r="N2" s="415"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="424"/>
+      <c r="F2" s="424"/>
+      <c r="G2" s="424"/>
+      <c r="H2" s="424"/>
+      <c r="I2" s="424"/>
+      <c r="J2" s="424"/>
+      <c r="K2" s="424"/>
+      <c r="L2" s="424"/>
+      <c r="M2" s="424"/>
+      <c r="N2" s="424"/>
     </row>
     <row r="3" spans="1:14" s="115" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="414"/>
-      <c r="B3" s="414"/>
+      <c r="A3" s="427"/>
+      <c r="B3" s="427"/>
       <c r="C3" s="113" t="s">
         <v>338</v>
       </c>
@@ -30487,7 +30487,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="413" t="s">
+      <c r="A4" s="425" t="s">
         <v>464</v>
       </c>
       <c r="B4" s="114" t="s">
@@ -30507,7 +30507,7 @@
       <c r="N4" s="112"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="413"/>
+      <c r="A5" s="425"/>
       <c r="B5" s="114" t="s">
         <v>355</v>
       </c>
@@ -30525,7 +30525,7 @@
       <c r="N5" s="112"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="413"/>
+      <c r="A6" s="425"/>
       <c r="B6" s="114" t="s">
         <v>354</v>
       </c>
@@ -30543,7 +30543,7 @@
       <c r="N6" s="112"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="413"/>
+      <c r="A7" s="425"/>
       <c r="B7" s="113" t="s">
         <v>360</v>
       </c>
@@ -30561,7 +30561,7 @@
       <c r="N7" s="112"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="413" t="s">
+      <c r="A8" s="425" t="s">
         <v>465</v>
       </c>
       <c r="B8" s="114" t="s">
@@ -30581,7 +30581,7 @@
       <c r="N8" s="112"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="413"/>
+      <c r="A9" s="425"/>
       <c r="B9" s="114" t="s">
         <v>355</v>
       </c>
@@ -30599,7 +30599,7 @@
       <c r="N9" s="112"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="413"/>
+      <c r="A10" s="425"/>
       <c r="B10" s="114" t="s">
         <v>354</v>
       </c>
@@ -30617,7 +30617,7 @@
       <c r="N10" s="112"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="413"/>
+      <c r="A11" s="425"/>
       <c r="B11" s="113" t="s">
         <v>360</v>
       </c>
@@ -30635,7 +30635,7 @@
       <c r="N11" s="112"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A12" s="413" t="s">
+      <c r="A12" s="425" t="s">
         <v>466</v>
       </c>
       <c r="B12" s="114" t="s">
@@ -30655,7 +30655,7 @@
       <c r="N12" s="112"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="413"/>
+      <c r="A13" s="425"/>
       <c r="B13" s="114" t="s">
         <v>355</v>
       </c>
@@ -30673,7 +30673,7 @@
       <c r="N13" s="112"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="413"/>
+      <c r="A14" s="425"/>
       <c r="B14" s="114" t="s">
         <v>354</v>
       </c>
@@ -30691,7 +30691,7 @@
       <c r="N14" s="112"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="413"/>
+      <c r="A15" s="425"/>
       <c r="B15" s="113" t="s">
         <v>360</v>
       </c>
@@ -30709,7 +30709,7 @@
       <c r="N15" s="112"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="413" t="s">
+      <c r="A16" s="425" t="s">
         <v>467</v>
       </c>
       <c r="B16" s="114" t="s">
@@ -30729,7 +30729,7 @@
       <c r="N16" s="112"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="413"/>
+      <c r="A17" s="425"/>
       <c r="B17" s="114" t="s">
         <v>355</v>
       </c>
@@ -30747,7 +30747,7 @@
       <c r="N17" s="112"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="413"/>
+      <c r="A18" s="425"/>
       <c r="B18" s="114" t="s">
         <v>354</v>
       </c>
@@ -30765,7 +30765,7 @@
       <c r="N18" s="112"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="413"/>
+      <c r="A19" s="425"/>
       <c r="B19" s="113" t="s">
         <v>360</v>
       </c>
@@ -30783,7 +30783,7 @@
       <c r="N19" s="112"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="413" t="s">
+      <c r="A20" s="425" t="s">
         <v>468</v>
       </c>
       <c r="B20" s="114" t="s">
@@ -30803,7 +30803,7 @@
       <c r="N20" s="112"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="413"/>
+      <c r="A21" s="425"/>
       <c r="B21" s="114" t="s">
         <v>355</v>
       </c>
@@ -30821,7 +30821,7 @@
       <c r="N21" s="112"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="413"/>
+      <c r="A22" s="425"/>
       <c r="B22" s="114" t="s">
         <v>354</v>
       </c>
@@ -30839,7 +30839,7 @@
       <c r="N22" s="112"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="413"/>
+      <c r="A23" s="425"/>
       <c r="B23" s="113" t="s">
         <v>360</v>
       </c>
@@ -30857,48 +30857,48 @@
       <c r="N23" s="112"/>
     </row>
     <row r="25" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A25" s="419" t="s">
+      <c r="A25" s="430" t="s">
         <v>361</v>
       </c>
-      <c r="B25" s="416"/>
-      <c r="C25" s="416"/>
-      <c r="D25" s="416"/>
-      <c r="E25" s="416"/>
-      <c r="F25" s="416"/>
-      <c r="G25" s="416"/>
-      <c r="H25" s="416"/>
-      <c r="I25" s="416"/>
-      <c r="J25" s="416"/>
-      <c r="K25" s="416"/>
-      <c r="L25" s="416"/>
-      <c r="M25" s="416"/>
-      <c r="N25" s="416"/>
+      <c r="B25" s="426"/>
+      <c r="C25" s="426"/>
+      <c r="D25" s="426"/>
+      <c r="E25" s="426"/>
+      <c r="F25" s="426"/>
+      <c r="G25" s="426"/>
+      <c r="H25" s="426"/>
+      <c r="I25" s="426"/>
+      <c r="J25" s="426"/>
+      <c r="K25" s="426"/>
+      <c r="L25" s="426"/>
+      <c r="M25" s="426"/>
+      <c r="N25" s="426"/>
     </row>
     <row r="26" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A26" s="414" t="s">
+      <c r="A26" s="427" t="s">
         <v>359</v>
       </c>
-      <c r="B26" s="414" t="s">
+      <c r="B26" s="427" t="s">
         <v>358</v>
       </c>
-      <c r="C26" s="415" t="s">
+      <c r="C26" s="424" t="s">
         <v>357</v>
       </c>
-      <c r="D26" s="415"/>
-      <c r="E26" s="415"/>
-      <c r="F26" s="415"/>
-      <c r="G26" s="415"/>
-      <c r="H26" s="415"/>
-      <c r="I26" s="415"/>
-      <c r="J26" s="415"/>
-      <c r="K26" s="415"/>
-      <c r="L26" s="415"/>
-      <c r="M26" s="415"/>
-      <c r="N26" s="415"/>
+      <c r="D26" s="424"/>
+      <c r="E26" s="424"/>
+      <c r="F26" s="424"/>
+      <c r="G26" s="424"/>
+      <c r="H26" s="424"/>
+      <c r="I26" s="424"/>
+      <c r="J26" s="424"/>
+      <c r="K26" s="424"/>
+      <c r="L26" s="424"/>
+      <c r="M26" s="424"/>
+      <c r="N26" s="424"/>
     </row>
     <row r="27" spans="1:14" s="115" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="414"/>
-      <c r="B27" s="414"/>
+      <c r="A27" s="427"/>
+      <c r="B27" s="427"/>
       <c r="C27" s="113" t="s">
         <v>338</v>
       </c>
@@ -30937,7 +30937,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A28" s="417" t="s">
+      <c r="A28" s="428" t="s">
         <v>469</v>
       </c>
       <c r="B28" s="114" t="s">
@@ -30957,7 +30957,7 @@
       <c r="N28" s="117"/>
     </row>
     <row r="29" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A29" s="418"/>
+      <c r="A29" s="429"/>
       <c r="B29" s="114" t="s">
         <v>355</v>
       </c>
@@ -30975,7 +30975,7 @@
       <c r="N29" s="117"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A30" s="418"/>
+      <c r="A30" s="429"/>
       <c r="B30" s="114" t="s">
         <v>354</v>
       </c>
@@ -30993,7 +30993,7 @@
       <c r="N30" s="117"/>
     </row>
     <row r="31" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A31" s="418"/>
+      <c r="A31" s="429"/>
       <c r="B31" s="113" t="s">
         <v>360</v>
       </c>
@@ -31011,7 +31011,7 @@
       <c r="N31" s="117"/>
     </row>
     <row r="32" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A32" s="413" t="s">
+      <c r="A32" s="425" t="s">
         <v>470</v>
       </c>
       <c r="B32" s="114" t="s">
@@ -31031,7 +31031,7 @@
       <c r="N32" s="112"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A33" s="413"/>
+      <c r="A33" s="425"/>
       <c r="B33" s="114" t="s">
         <v>355</v>
       </c>
@@ -31049,7 +31049,7 @@
       <c r="N33" s="112"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A34" s="413"/>
+      <c r="A34" s="425"/>
       <c r="B34" s="114" t="s">
         <v>354</v>
       </c>
@@ -31067,7 +31067,7 @@
       <c r="N34" s="112"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A35" s="413"/>
+      <c r="A35" s="425"/>
       <c r="B35" s="113" t="s">
         <v>360</v>
       </c>
@@ -31085,7 +31085,7 @@
       <c r="N35" s="112"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A36" s="413" t="s">
+      <c r="A36" s="425" t="s">
         <v>471</v>
       </c>
       <c r="B36" s="114" t="s">
@@ -31105,7 +31105,7 @@
       <c r="N36" s="112"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A37" s="413"/>
+      <c r="A37" s="425"/>
       <c r="B37" s="114" t="s">
         <v>355</v>
       </c>
@@ -31123,7 +31123,7 @@
       <c r="N37" s="112"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A38" s="413"/>
+      <c r="A38" s="425"/>
       <c r="B38" s="114" t="s">
         <v>354</v>
       </c>
@@ -31141,7 +31141,7 @@
       <c r="N38" s="112"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A39" s="413"/>
+      <c r="A39" s="425"/>
       <c r="B39" s="113" t="s">
         <v>360</v>
       </c>
@@ -31159,7 +31159,7 @@
       <c r="N39" s="112"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A40" s="413" t="s">
+      <c r="A40" s="425" t="s">
         <v>472</v>
       </c>
       <c r="B40" s="114" t="s">
@@ -31179,7 +31179,7 @@
       <c r="N40" s="112"/>
     </row>
     <row r="41" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A41" s="413"/>
+      <c r="A41" s="425"/>
       <c r="B41" s="114" t="s">
         <v>355</v>
       </c>
@@ -31197,7 +31197,7 @@
       <c r="N41" s="112"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A42" s="413"/>
+      <c r="A42" s="425"/>
       <c r="B42" s="114" t="s">
         <v>354</v>
       </c>
@@ -31215,7 +31215,7 @@
       <c r="N42" s="112"/>
     </row>
     <row r="43" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A43" s="413"/>
+      <c r="A43" s="425"/>
       <c r="B43" s="113" t="s">
         <v>360</v>
       </c>
@@ -31233,7 +31233,7 @@
       <c r="N43" s="112"/>
     </row>
     <row r="44" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A44" s="413" t="s">
+      <c r="A44" s="425" t="s">
         <v>473</v>
       </c>
       <c r="B44" s="114" t="s">
@@ -31253,7 +31253,7 @@
       <c r="N44" s="112"/>
     </row>
     <row r="45" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A45" s="413"/>
+      <c r="A45" s="425"/>
       <c r="B45" s="114" t="s">
         <v>355</v>
       </c>
@@ -31271,7 +31271,7 @@
       <c r="N45" s="112"/>
     </row>
     <row r="46" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A46" s="413"/>
+      <c r="A46" s="425"/>
       <c r="B46" s="114" t="s">
         <v>354</v>
       </c>
@@ -31289,7 +31289,7 @@
       <c r="N46" s="112"/>
     </row>
     <row r="47" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A47" s="413"/>
+      <c r="A47" s="425"/>
       <c r="B47" s="113" t="s">
         <v>360</v>
       </c>
@@ -31308,6 +31308,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:N26"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A25:N25"/>
@@ -31321,11 +31326,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31402,21 +31402,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="190" customFormat="1" ht="14.25">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="336" t="s">
         <v>617</v>
       </c>
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="336" t="s">
         <v>618</v>
       </c>
-      <c r="C2" s="328" t="s">
+      <c r="C2" s="338" t="s">
         <v>619</v>
       </c>
       <c r="D2" s="189"/>
     </row>
     <row r="3" spans="1:4" s="192" customFormat="1" ht="14.25">
-      <c r="A3" s="327"/>
-      <c r="B3" s="327"/>
-      <c r="C3" s="328"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="338"/>
       <c r="D3" s="191"/>
     </row>
     <row r="4" spans="1:4" s="190" customFormat="1" ht="14.25">
@@ -32186,45 +32186,45 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="431" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
-      <c r="I1" s="421"/>
-      <c r="J1" s="421"/>
-      <c r="K1" s="421"/>
-      <c r="L1" s="421"/>
-      <c r="M1" s="421"/>
+      <c r="B1" s="432"/>
+      <c r="C1" s="432"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="357" t="s">
+      <c r="A2" s="370" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="360" t="s">
+      <c r="B2" s="367" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="360"/>
-      <c r="J2" s="360"/>
-      <c r="K2" s="360" t="s">
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367"/>
+      <c r="K2" s="367" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="360"/>
-      <c r="M2" s="360"/>
+      <c r="L2" s="367"/>
+      <c r="M2" s="367"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="357"/>
+      <c r="A3" s="370"/>
       <c r="B3" s="35" t="s">
         <v>99</v>
       </c>
@@ -32943,45 +32943,45 @@
       <c r="M43" s="23"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="420" t="s">
+      <c r="A47" s="431" t="s">
         <v>371</v>
       </c>
-      <c r="B47" s="421"/>
-      <c r="C47" s="421"/>
-      <c r="D47" s="421"/>
-      <c r="E47" s="421"/>
-      <c r="F47" s="421"/>
-      <c r="G47" s="421"/>
-      <c r="H47" s="421"/>
-      <c r="I47" s="421"/>
-      <c r="J47" s="421"/>
-      <c r="K47" s="421"/>
-      <c r="L47" s="421"/>
-      <c r="M47" s="421"/>
+      <c r="B47" s="432"/>
+      <c r="C47" s="432"/>
+      <c r="D47" s="432"/>
+      <c r="E47" s="432"/>
+      <c r="F47" s="432"/>
+      <c r="G47" s="432"/>
+      <c r="H47" s="432"/>
+      <c r="I47" s="432"/>
+      <c r="J47" s="432"/>
+      <c r="K47" s="432"/>
+      <c r="L47" s="432"/>
+      <c r="M47" s="432"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="340" t="s">
+      <c r="A48" s="346" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="337" t="s">
+      <c r="B48" s="347" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="337"/>
-      <c r="D48" s="337"/>
-      <c r="E48" s="337"/>
-      <c r="F48" s="337"/>
-      <c r="G48" s="337"/>
-      <c r="H48" s="337"/>
-      <c r="I48" s="337"/>
-      <c r="J48" s="337"/>
-      <c r="K48" s="337" t="s">
+      <c r="C48" s="347"/>
+      <c r="D48" s="347"/>
+      <c r="E48" s="347"/>
+      <c r="F48" s="347"/>
+      <c r="G48" s="347"/>
+      <c r="H48" s="347"/>
+      <c r="I48" s="347"/>
+      <c r="J48" s="347"/>
+      <c r="K48" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="L48" s="337"/>
-      <c r="M48" s="337"/>
+      <c r="L48" s="347"/>
+      <c r="M48" s="347"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="340"/>
+      <c r="A49" s="346"/>
       <c r="B49" s="2" t="s">
         <v>99</v>
       </c>
@@ -33403,45 +33403,45 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="431" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
-      <c r="I1" s="421"/>
-      <c r="J1" s="421"/>
-      <c r="K1" s="421"/>
-      <c r="L1" s="421"/>
-      <c r="M1" s="421"/>
+      <c r="B1" s="432"/>
+      <c r="C1" s="432"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
+      <c r="K1" s="432"/>
+      <c r="L1" s="432"/>
+      <c r="M1" s="432"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="357" t="s">
+      <c r="A2" s="370" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="360" t="s">
+      <c r="B2" s="367" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="360"/>
-      <c r="J2" s="360"/>
-      <c r="K2" s="360" t="s">
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367"/>
+      <c r="K2" s="367" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="360"/>
-      <c r="M2" s="360"/>
+      <c r="L2" s="367"/>
+      <c r="M2" s="367"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="357"/>
+      <c r="A3" s="370"/>
       <c r="B3" s="35" t="s">
         <v>99</v>
       </c>
@@ -34143,45 +34143,45 @@
       <c r="M42" s="23"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="420" t="s">
+      <c r="A46" s="431" t="s">
         <v>371</v>
       </c>
-      <c r="B46" s="421"/>
-      <c r="C46" s="421"/>
-      <c r="D46" s="421"/>
-      <c r="E46" s="421"/>
-      <c r="F46" s="421"/>
-      <c r="G46" s="421"/>
-      <c r="H46" s="421"/>
-      <c r="I46" s="421"/>
-      <c r="J46" s="421"/>
-      <c r="K46" s="421"/>
-      <c r="L46" s="421"/>
-      <c r="M46" s="421"/>
+      <c r="B46" s="432"/>
+      <c r="C46" s="432"/>
+      <c r="D46" s="432"/>
+      <c r="E46" s="432"/>
+      <c r="F46" s="432"/>
+      <c r="G46" s="432"/>
+      <c r="H46" s="432"/>
+      <c r="I46" s="432"/>
+      <c r="J46" s="432"/>
+      <c r="K46" s="432"/>
+      <c r="L46" s="432"/>
+      <c r="M46" s="432"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="422" t="s">
+      <c r="A47" s="433" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="337" t="s">
+      <c r="B47" s="347" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="337"/>
-      <c r="D47" s="337"/>
-      <c r="E47" s="337"/>
-      <c r="F47" s="337"/>
-      <c r="G47" s="337"/>
-      <c r="H47" s="337"/>
-      <c r="I47" s="337"/>
-      <c r="J47" s="337"/>
-      <c r="K47" s="337" t="s">
+      <c r="C47" s="347"/>
+      <c r="D47" s="347"/>
+      <c r="E47" s="347"/>
+      <c r="F47" s="347"/>
+      <c r="G47" s="347"/>
+      <c r="H47" s="347"/>
+      <c r="I47" s="347"/>
+      <c r="J47" s="347"/>
+      <c r="K47" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="337"/>
-      <c r="M47" s="337"/>
+      <c r="L47" s="347"/>
+      <c r="M47" s="347"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="422"/>
+      <c r="A48" s="433"/>
       <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
@@ -34280,48 +34280,48 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="424" t="s">
+      <c r="A1" s="435" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="425"/>
-      <c r="C1" s="425"/>
-      <c r="D1" s="425"/>
-      <c r="E1" s="425"/>
-      <c r="F1" s="425"/>
-      <c r="G1" s="425"/>
-      <c r="H1" s="425"/>
-      <c r="I1" s="425"/>
-      <c r="J1" s="425"/>
-      <c r="K1" s="425"/>
-      <c r="L1" s="425"/>
-      <c r="M1" s="425"/>
-      <c r="N1" s="425"/>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="436"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="436"/>
+      <c r="H1" s="436"/>
+      <c r="I1" s="436"/>
+      <c r="J1" s="436"/>
+      <c r="K1" s="436"/>
+      <c r="L1" s="436"/>
+      <c r="M1" s="436"/>
+      <c r="N1" s="436"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="426" t="s">
+      <c r="A2" s="437" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="426"/>
-      <c r="C2" s="361" t="s">
+      <c r="B2" s="437"/>
+      <c r="C2" s="369" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="361"/>
-      <c r="E2" s="361"/>
-      <c r="F2" s="361"/>
-      <c r="G2" s="361"/>
-      <c r="H2" s="361"/>
-      <c r="I2" s="361"/>
-      <c r="J2" s="361"/>
-      <c r="K2" s="361"/>
-      <c r="L2" s="361" t="s">
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="361"/>
-      <c r="N2" s="361"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="369"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="426"/>
-      <c r="B3" s="426"/>
+      <c r="A3" s="437"/>
+      <c r="B3" s="437"/>
       <c r="C3" s="128" t="s">
         <v>99</v>
       </c>
@@ -34360,7 +34360,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25">
-      <c r="A4" s="340" t="s">
+      <c r="A4" s="346" t="s">
         <v>376</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -34380,7 +34380,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="14.25">
-      <c r="A5" s="340"/>
+      <c r="A5" s="346"/>
       <c r="B5" s="2" t="s">
         <v>378</v>
       </c>
@@ -34398,7 +34398,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="14.25">
-      <c r="A6" s="340"/>
+      <c r="A6" s="346"/>
       <c r="B6" s="2" t="s">
         <v>379</v>
       </c>
@@ -34416,7 +34416,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="14.25">
-      <c r="A7" s="340"/>
+      <c r="A7" s="346"/>
       <c r="B7" s="2" t="s">
         <v>380</v>
       </c>
@@ -34434,7 +34434,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="14.25">
-      <c r="A8" s="340" t="s">
+      <c r="A8" s="346" t="s">
         <v>381</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -34454,7 +34454,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="14.25">
-      <c r="A9" s="340"/>
+      <c r="A9" s="346"/>
       <c r="B9" s="2" t="s">
         <v>383</v>
       </c>
@@ -34472,7 +34472,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="14.25">
-      <c r="A10" s="340"/>
+      <c r="A10" s="346"/>
       <c r="B10" s="2" t="s">
         <v>384</v>
       </c>
@@ -34490,7 +34490,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="14.25">
-      <c r="A11" s="340" t="s">
+      <c r="A11" s="346" t="s">
         <v>385</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -34510,7 +34510,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="14.25">
-      <c r="A12" s="340"/>
+      <c r="A12" s="346"/>
       <c r="B12" s="2" t="s">
         <v>387</v>
       </c>
@@ -34528,7 +34528,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="24">
-      <c r="A13" s="340"/>
+      <c r="A13" s="346"/>
       <c r="B13" s="2" t="s">
         <v>388</v>
       </c>
@@ -34546,7 +34546,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="14.25">
-      <c r="A14" s="340"/>
+      <c r="A14" s="346"/>
       <c r="B14" s="2" t="s">
         <v>389</v>
       </c>
@@ -34564,7 +34564,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="14.25">
-      <c r="A15" s="340"/>
+      <c r="A15" s="346"/>
       <c r="B15" s="2" t="s">
         <v>390</v>
       </c>
@@ -34582,7 +34582,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="14.25">
-      <c r="A16" s="340"/>
+      <c r="A16" s="346"/>
       <c r="B16" s="2" t="s">
         <v>391</v>
       </c>
@@ -34600,10 +34600,10 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="14.25">
-      <c r="A17" s="340" t="s">
+      <c r="A17" s="346" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="340"/>
+      <c r="B17" s="346"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -34618,10 +34618,10 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="14.25">
-      <c r="A18" s="423" t="s">
+      <c r="A18" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="423"/>
+      <c r="B18" s="434"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -34663,45 +34663,45 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="438" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="428"/>
-      <c r="G1" s="428"/>
-      <c r="H1" s="428"/>
-      <c r="I1" s="428"/>
-      <c r="J1" s="428"/>
-      <c r="K1" s="428"/>
-      <c r="L1" s="428"/>
-      <c r="M1" s="429"/>
+      <c r="B1" s="439"/>
+      <c r="C1" s="439"/>
+      <c r="D1" s="439"/>
+      <c r="E1" s="439"/>
+      <c r="F1" s="439"/>
+      <c r="G1" s="439"/>
+      <c r="H1" s="439"/>
+      <c r="I1" s="439"/>
+      <c r="J1" s="439"/>
+      <c r="K1" s="439"/>
+      <c r="L1" s="439"/>
+      <c r="M1" s="440"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="357" t="s">
+      <c r="A2" s="370" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="360" t="s">
+      <c r="B2" s="367" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="360"/>
-      <c r="J2" s="360"/>
-      <c r="K2" s="360" t="s">
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367"/>
+      <c r="K2" s="367" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="360"/>
-      <c r="M2" s="360"/>
+      <c r="L2" s="367"/>
+      <c r="M2" s="367"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="357"/>
+      <c r="A3" s="370"/>
       <c r="B3" s="35" t="s">
         <v>99</v>
       </c>
@@ -35471,45 +35471,45 @@
       <c r="M46" s="23"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="427" t="s">
+      <c r="A49" s="438" t="s">
         <v>393</v>
       </c>
-      <c r="B49" s="428"/>
-      <c r="C49" s="428"/>
-      <c r="D49" s="428"/>
-      <c r="E49" s="428"/>
-      <c r="F49" s="428"/>
-      <c r="G49" s="428"/>
-      <c r="H49" s="428"/>
-      <c r="I49" s="428"/>
-      <c r="J49" s="428"/>
-      <c r="K49" s="428"/>
-      <c r="L49" s="428"/>
-      <c r="M49" s="429"/>
+      <c r="B49" s="439"/>
+      <c r="C49" s="439"/>
+      <c r="D49" s="439"/>
+      <c r="E49" s="439"/>
+      <c r="F49" s="439"/>
+      <c r="G49" s="439"/>
+      <c r="H49" s="439"/>
+      <c r="I49" s="439"/>
+      <c r="J49" s="439"/>
+      <c r="K49" s="439"/>
+      <c r="L49" s="439"/>
+      <c r="M49" s="440"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="340" t="s">
+      <c r="A50" s="346" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="337" t="s">
+      <c r="B50" s="347" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="337"/>
-      <c r="D50" s="337"/>
-      <c r="E50" s="337"/>
-      <c r="F50" s="337"/>
-      <c r="G50" s="337"/>
-      <c r="H50" s="337"/>
-      <c r="I50" s="337"/>
-      <c r="J50" s="337"/>
-      <c r="K50" s="337" t="s">
+      <c r="C50" s="347"/>
+      <c r="D50" s="347"/>
+      <c r="E50" s="347"/>
+      <c r="F50" s="347"/>
+      <c r="G50" s="347"/>
+      <c r="H50" s="347"/>
+      <c r="I50" s="347"/>
+      <c r="J50" s="347"/>
+      <c r="K50" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="L50" s="337"/>
-      <c r="M50" s="337"/>
+      <c r="L50" s="347"/>
+      <c r="M50" s="347"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="340"/>
+      <c r="A51" s="346"/>
       <c r="B51" s="2" t="s">
         <v>99</v>
       </c>
@@ -35839,53 +35839,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25">
-      <c r="A1" s="433" t="s">
+      <c r="A1" s="479" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="434"/>
-      <c r="C1" s="434"/>
-      <c r="D1" s="434"/>
-      <c r="E1" s="437" t="s">
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="480"/>
+      <c r="E1" s="483" t="s">
         <v>395</v>
       </c>
-      <c r="F1" s="437"/>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437" t="s">
+      <c r="F1" s="483"/>
+      <c r="G1" s="483"/>
+      <c r="H1" s="483" t="s">
         <v>396</v>
       </c>
-      <c r="I1" s="437"/>
-      <c r="J1" s="438"/>
+      <c r="I1" s="483"/>
+      <c r="J1" s="484"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="439" t="s">
+      <c r="M1" s="485" t="s">
         <v>394</v>
       </c>
-      <c r="N1" s="440"/>
-      <c r="O1" s="440"/>
-      <c r="P1" s="441"/>
-      <c r="Q1" s="430" t="s">
+      <c r="N1" s="486"/>
+      <c r="O1" s="486"/>
+      <c r="P1" s="487"/>
+      <c r="Q1" s="476" t="s">
         <v>397</v>
       </c>
-      <c r="R1" s="431"/>
-      <c r="S1" s="445"/>
-      <c r="T1" s="430" t="s">
+      <c r="R1" s="477"/>
+      <c r="S1" s="491"/>
+      <c r="T1" s="476" t="s">
         <v>398</v>
       </c>
-      <c r="U1" s="431"/>
-      <c r="V1" s="432"/>
+      <c r="U1" s="477"/>
+      <c r="V1" s="478"/>
     </row>
     <row r="2" spans="1:22" ht="28.5">
-      <c r="A2" s="435"/>
-      <c r="B2" s="436"/>
-      <c r="C2" s="436"/>
-      <c r="D2" s="436"/>
+      <c r="A2" s="481"/>
+      <c r="B2" s="482"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="482"/>
       <c r="E2" s="264" t="s">
         <v>399</v>
       </c>
@@ -35906,10 +35906,10 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="442"/>
-      <c r="N2" s="443"/>
-      <c r="O2" s="443"/>
-      <c r="P2" s="444"/>
+      <c r="M2" s="488"/>
+      <c r="N2" s="489"/>
+      <c r="O2" s="489"/>
+      <c r="P2" s="490"/>
       <c r="Q2" s="264" t="s">
         <v>399</v>
       </c>
@@ -35930,12 +35930,12 @@
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="446" t="s">
+      <c r="A3" s="459" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="447"/>
-      <c r="C3" s="447"/>
-      <c r="D3" s="447"/>
+      <c r="B3" s="460"/>
+      <c r="C3" s="460"/>
+      <c r="D3" s="460"/>
       <c r="E3" s="266"/>
       <c r="F3" s="266"/>
       <c r="G3" s="266"/>
@@ -35944,12 +35944,12 @@
       <c r="J3" s="268"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="448" t="s">
+      <c r="M3" s="461" t="s">
         <v>403</v>
       </c>
-      <c r="N3" s="449"/>
-      <c r="O3" s="449"/>
-      <c r="P3" s="446"/>
+      <c r="N3" s="462"/>
+      <c r="O3" s="462"/>
+      <c r="P3" s="459"/>
       <c r="Q3" s="266"/>
       <c r="R3" s="266"/>
       <c r="S3" s="266"/>
@@ -35958,11 +35958,11 @@
       <c r="V3" s="268"/>
     </row>
     <row r="4" spans="1:22" ht="25.5">
-      <c r="A4" s="450" t="s">
+      <c r="A4" s="463" t="s">
         <v>404</v>
       </c>
-      <c r="B4" s="451"/>
-      <c r="C4" s="452"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="465"/>
       <c r="D4" s="267" t="s">
         <v>405</v>
       </c>
@@ -35974,11 +35974,11 @@
       <c r="J4" s="268"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="450" t="s">
+      <c r="M4" s="463" t="s">
         <v>404</v>
       </c>
-      <c r="N4" s="451"/>
-      <c r="O4" s="452"/>
+      <c r="N4" s="464"/>
+      <c r="O4" s="465"/>
       <c r="P4" s="267" t="s">
         <v>405</v>
       </c>
@@ -35990,9 +35990,9 @@
       <c r="V4" s="268"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="453"/>
-      <c r="B5" s="454"/>
-      <c r="C5" s="455"/>
+      <c r="A5" s="466"/>
+      <c r="B5" s="467"/>
+      <c r="C5" s="468"/>
       <c r="D5" s="267" t="s">
         <v>406</v>
       </c>
@@ -36004,9 +36004,9 @@
       <c r="J5" s="269"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="453"/>
-      <c r="N5" s="454"/>
-      <c r="O5" s="455"/>
+      <c r="M5" s="466"/>
+      <c r="N5" s="467"/>
+      <c r="O5" s="468"/>
       <c r="P5" s="267" t="s">
         <v>406</v>
       </c>
@@ -36018,9 +36018,9 @@
       <c r="V5" s="269"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="453"/>
-      <c r="B6" s="454"/>
-      <c r="C6" s="455"/>
+      <c r="A6" s="466"/>
+      <c r="B6" s="467"/>
+      <c r="C6" s="468"/>
       <c r="D6" s="267" t="s">
         <v>407</v>
       </c>
@@ -36032,9 +36032,9 @@
       <c r="J6" s="268"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="453"/>
-      <c r="N6" s="454"/>
-      <c r="O6" s="455"/>
+      <c r="M6" s="466"/>
+      <c r="N6" s="467"/>
+      <c r="O6" s="468"/>
       <c r="P6" s="267" t="s">
         <v>407</v>
       </c>
@@ -36046,9 +36046,9 @@
       <c r="V6" s="268"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="453"/>
-      <c r="B7" s="454"/>
-      <c r="C7" s="455"/>
+      <c r="A7" s="466"/>
+      <c r="B7" s="467"/>
+      <c r="C7" s="468"/>
       <c r="D7" s="267" t="s">
         <v>408</v>
       </c>
@@ -36060,9 +36060,9 @@
       <c r="J7" s="268"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="453"/>
-      <c r="N7" s="454"/>
-      <c r="O7" s="455"/>
+      <c r="M7" s="466"/>
+      <c r="N7" s="467"/>
+      <c r="O7" s="468"/>
       <c r="P7" s="267" t="s">
         <v>408</v>
       </c>
@@ -36074,9 +36074,9 @@
       <c r="V7" s="268"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="453"/>
-      <c r="B8" s="454"/>
-      <c r="C8" s="455"/>
+      <c r="A8" s="466"/>
+      <c r="B8" s="467"/>
+      <c r="C8" s="468"/>
       <c r="D8" s="267" t="s">
         <v>409</v>
       </c>
@@ -36088,9 +36088,9 @@
       <c r="J8" s="268"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="453"/>
-      <c r="N8" s="454"/>
-      <c r="O8" s="455"/>
+      <c r="M8" s="466"/>
+      <c r="N8" s="467"/>
+      <c r="O8" s="468"/>
       <c r="P8" s="267" t="s">
         <v>409</v>
       </c>
@@ -36102,9 +36102,9 @@
       <c r="V8" s="268"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="453"/>
-      <c r="B9" s="454"/>
-      <c r="C9" s="455"/>
+      <c r="A9" s="466"/>
+      <c r="B9" s="467"/>
+      <c r="C9" s="468"/>
       <c r="D9" s="267" t="s">
         <v>410</v>
       </c>
@@ -36116,9 +36116,9 @@
       <c r="J9" s="268"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="453"/>
-      <c r="N9" s="454"/>
-      <c r="O9" s="455"/>
+      <c r="M9" s="466"/>
+      <c r="N9" s="467"/>
+      <c r="O9" s="468"/>
       <c r="P9" s="267" t="s">
         <v>410</v>
       </c>
@@ -36130,9 +36130,9 @@
       <c r="V9" s="268"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="453"/>
-      <c r="B10" s="454"/>
-      <c r="C10" s="455"/>
+      <c r="A10" s="466"/>
+      <c r="B10" s="467"/>
+      <c r="C10" s="468"/>
       <c r="D10" s="267" t="s">
         <v>411</v>
       </c>
@@ -36144,9 +36144,9 @@
       <c r="J10" s="268"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="453"/>
-      <c r="N10" s="454"/>
-      <c r="O10" s="455"/>
+      <c r="M10" s="466"/>
+      <c r="N10" s="467"/>
+      <c r="O10" s="468"/>
       <c r="P10" s="267" t="s">
         <v>411</v>
       </c>
@@ -36158,9 +36158,9 @@
       <c r="V10" s="268"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="453"/>
-      <c r="B11" s="454"/>
-      <c r="C11" s="455"/>
+      <c r="A11" s="466"/>
+      <c r="B11" s="467"/>
+      <c r="C11" s="468"/>
       <c r="D11" s="267" t="s">
         <v>412</v>
       </c>
@@ -36172,9 +36172,9 @@
       <c r="J11" s="268"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="453"/>
-      <c r="N11" s="454"/>
-      <c r="O11" s="455"/>
+      <c r="M11" s="466"/>
+      <c r="N11" s="467"/>
+      <c r="O11" s="468"/>
       <c r="P11" s="267" t="s">
         <v>412</v>
       </c>
@@ -36186,9 +36186,9 @@
       <c r="V11" s="268"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="453"/>
-      <c r="B12" s="454"/>
-      <c r="C12" s="455"/>
+      <c r="A12" s="466"/>
+      <c r="B12" s="467"/>
+      <c r="C12" s="468"/>
       <c r="D12" s="267" t="s">
         <v>413</v>
       </c>
@@ -36200,9 +36200,9 @@
       <c r="J12" s="268"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="453"/>
-      <c r="N12" s="454"/>
-      <c r="O12" s="455"/>
+      <c r="M12" s="466"/>
+      <c r="N12" s="467"/>
+      <c r="O12" s="468"/>
       <c r="P12" s="267" t="s">
         <v>413</v>
       </c>
@@ -36214,9 +36214,9 @@
       <c r="V12" s="268"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="453"/>
-      <c r="B13" s="454"/>
-      <c r="C13" s="455"/>
+      <c r="A13" s="466"/>
+      <c r="B13" s="467"/>
+      <c r="C13" s="468"/>
       <c r="D13" s="267" t="s">
         <v>414</v>
       </c>
@@ -36228,9 +36228,9 @@
       <c r="J13" s="268"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="453"/>
-      <c r="N13" s="454"/>
-      <c r="O13" s="455"/>
+      <c r="M13" s="466"/>
+      <c r="N13" s="467"/>
+      <c r="O13" s="468"/>
       <c r="P13" s="267" t="s">
         <v>414</v>
       </c>
@@ -36242,9 +36242,9 @@
       <c r="V13" s="268"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="453"/>
-      <c r="B14" s="454"/>
-      <c r="C14" s="455"/>
+      <c r="A14" s="466"/>
+      <c r="B14" s="467"/>
+      <c r="C14" s="468"/>
       <c r="D14" s="267" t="s">
         <v>415</v>
       </c>
@@ -36256,9 +36256,9 @@
       <c r="J14" s="268"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="453"/>
-      <c r="N14" s="454"/>
-      <c r="O14" s="455"/>
+      <c r="M14" s="466"/>
+      <c r="N14" s="467"/>
+      <c r="O14" s="468"/>
       <c r="P14" s="267" t="s">
         <v>415</v>
       </c>
@@ -36270,9 +36270,9 @@
       <c r="V14" s="268"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="456"/>
-      <c r="B15" s="457"/>
-      <c r="C15" s="458"/>
+      <c r="A15" s="469"/>
+      <c r="B15" s="470"/>
+      <c r="C15" s="471"/>
       <c r="D15" s="270" t="s">
         <v>416</v>
       </c>
@@ -36284,9 +36284,9 @@
       <c r="J15" s="268"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="456"/>
-      <c r="N15" s="457"/>
-      <c r="O15" s="458"/>
+      <c r="M15" s="469"/>
+      <c r="N15" s="470"/>
+      <c r="O15" s="471"/>
       <c r="P15" s="270" t="s">
         <v>416</v>
       </c>
@@ -36298,11 +36298,11 @@
       <c r="V15" s="268"/>
     </row>
     <row r="16" spans="1:22" ht="25.5">
-      <c r="A16" s="459" t="s">
+      <c r="A16" s="472" t="s">
         <v>417</v>
       </c>
-      <c r="B16" s="459"/>
-      <c r="C16" s="459"/>
+      <c r="B16" s="472"/>
+      <c r="C16" s="472"/>
       <c r="D16" s="271" t="s">
         <v>405</v>
       </c>
@@ -36314,11 +36314,11 @@
       <c r="J16" s="272"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="450" t="s">
+      <c r="M16" s="463" t="s">
         <v>417</v>
       </c>
-      <c r="N16" s="451"/>
-      <c r="O16" s="452"/>
+      <c r="N16" s="464"/>
+      <c r="O16" s="465"/>
       <c r="P16" s="271" t="s">
         <v>405</v>
       </c>
@@ -36330,9 +36330,9 @@
       <c r="V16" s="268"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="459"/>
-      <c r="B17" s="459"/>
-      <c r="C17" s="459"/>
+      <c r="A17" s="472"/>
+      <c r="B17" s="472"/>
+      <c r="C17" s="472"/>
       <c r="D17" s="271" t="s">
         <v>418</v>
       </c>
@@ -36344,9 +36344,9 @@
       <c r="J17" s="272"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="453"/>
-      <c r="N17" s="454"/>
-      <c r="O17" s="455"/>
+      <c r="M17" s="466"/>
+      <c r="N17" s="467"/>
+      <c r="O17" s="468"/>
       <c r="P17" s="271" t="s">
         <v>418</v>
       </c>
@@ -36358,9 +36358,9 @@
       <c r="V17" s="268"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="459"/>
-      <c r="B18" s="459"/>
-      <c r="C18" s="459"/>
+      <c r="A18" s="472"/>
+      <c r="B18" s="472"/>
+      <c r="C18" s="472"/>
       <c r="D18" s="267" t="s">
         <v>419</v>
       </c>
@@ -36372,9 +36372,9 @@
       <c r="J18" s="267"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="453"/>
-      <c r="N18" s="454"/>
-      <c r="O18" s="455"/>
+      <c r="M18" s="466"/>
+      <c r="N18" s="467"/>
+      <c r="O18" s="468"/>
       <c r="P18" s="267" t="s">
         <v>419</v>
       </c>
@@ -36386,9 +36386,9 @@
       <c r="V18" s="269"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="459"/>
-      <c r="B19" s="459"/>
-      <c r="C19" s="459"/>
+      <c r="A19" s="472"/>
+      <c r="B19" s="472"/>
+      <c r="C19" s="472"/>
       <c r="D19" s="267" t="s">
         <v>420</v>
       </c>
@@ -36400,9 +36400,9 @@
       <c r="J19" s="267"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="453"/>
-      <c r="N19" s="454"/>
-      <c r="O19" s="455"/>
+      <c r="M19" s="466"/>
+      <c r="N19" s="467"/>
+      <c r="O19" s="468"/>
       <c r="P19" s="267" t="s">
         <v>420</v>
       </c>
@@ -36414,9 +36414,9 @@
       <c r="V19" s="269"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="459"/>
-      <c r="B20" s="459"/>
-      <c r="C20" s="459"/>
+      <c r="A20" s="472"/>
+      <c r="B20" s="472"/>
+      <c r="C20" s="472"/>
       <c r="D20" s="267" t="s">
         <v>421</v>
       </c>
@@ -36428,9 +36428,9 @@
       <c r="J20" s="267"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="453"/>
-      <c r="N20" s="454"/>
-      <c r="O20" s="455"/>
+      <c r="M20" s="466"/>
+      <c r="N20" s="467"/>
+      <c r="O20" s="468"/>
       <c r="P20" s="267" t="s">
         <v>421</v>
       </c>
@@ -36442,9 +36442,9 @@
       <c r="V20" s="269"/>
     </row>
     <row r="21" spans="1:22" ht="26.25" thickBot="1">
-      <c r="A21" s="459"/>
-      <c r="B21" s="459"/>
-      <c r="C21" s="459"/>
+      <c r="A21" s="472"/>
+      <c r="B21" s="472"/>
+      <c r="C21" s="472"/>
       <c r="D21" s="267" t="s">
         <v>422</v>
       </c>
@@ -36456,9 +36456,9 @@
       <c r="J21" s="267"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="460"/>
-      <c r="N21" s="461"/>
-      <c r="O21" s="462"/>
+      <c r="M21" s="473"/>
+      <c r="N21" s="474"/>
+      <c r="O21" s="475"/>
       <c r="P21" s="273" t="s">
         <v>423</v>
       </c>
@@ -36475,159 +36475,159 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="463" t="s">
+      <c r="A26" s="458" t="s">
         <v>311</v>
       </c>
-      <c r="B26" s="464"/>
+      <c r="B26" s="454"/>
       <c r="C26" s="262" t="s">
         <v>425</v>
       </c>
-      <c r="D26" s="464" t="s">
+      <c r="D26" s="454" t="s">
         <v>426</v>
       </c>
-      <c r="E26" s="464"/>
-      <c r="F26" s="464" t="s">
+      <c r="E26" s="454"/>
+      <c r="F26" s="454" t="s">
         <v>427</v>
       </c>
-      <c r="G26" s="464"/>
-      <c r="H26" s="464" t="s">
+      <c r="G26" s="454"/>
+      <c r="H26" s="454" t="s">
         <v>428</v>
       </c>
-      <c r="I26" s="464"/>
-      <c r="J26" s="464" t="s">
+      <c r="I26" s="454"/>
+      <c r="J26" s="454" t="s">
         <v>429</v>
       </c>
-      <c r="K26" s="464"/>
-      <c r="L26" s="464"/>
-      <c r="M26" s="465"/>
+      <c r="K26" s="454"/>
+      <c r="L26" s="454"/>
+      <c r="M26" s="455"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="466" t="s">
+      <c r="A27" s="450" t="s">
         <v>430</v>
       </c>
-      <c r="B27" s="467"/>
+      <c r="B27" s="451"/>
       <c r="C27" s="262"/>
-      <c r="D27" s="464"/>
-      <c r="E27" s="464"/>
-      <c r="F27" s="464"/>
-      <c r="G27" s="464"/>
-      <c r="H27" s="464"/>
-      <c r="I27" s="464"/>
-      <c r="J27" s="464"/>
-      <c r="K27" s="464"/>
-      <c r="L27" s="464"/>
-      <c r="M27" s="465"/>
+      <c r="D27" s="454"/>
+      <c r="E27" s="454"/>
+      <c r="F27" s="454"/>
+      <c r="G27" s="454"/>
+      <c r="H27" s="454"/>
+      <c r="I27" s="454"/>
+      <c r="J27" s="454"/>
+      <c r="K27" s="454"/>
+      <c r="L27" s="454"/>
+      <c r="M27" s="455"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="466"/>
-      <c r="B28" s="467"/>
+      <c r="A28" s="450"/>
+      <c r="B28" s="451"/>
       <c r="C28" s="262"/>
-      <c r="D28" s="464"/>
-      <c r="E28" s="464"/>
-      <c r="F28" s="464"/>
-      <c r="G28" s="464"/>
-      <c r="H28" s="464"/>
-      <c r="I28" s="464"/>
-      <c r="J28" s="464"/>
-      <c r="K28" s="464"/>
-      <c r="L28" s="464"/>
-      <c r="M28" s="465"/>
+      <c r="D28" s="454"/>
+      <c r="E28" s="454"/>
+      <c r="F28" s="454"/>
+      <c r="G28" s="454"/>
+      <c r="H28" s="454"/>
+      <c r="I28" s="454"/>
+      <c r="J28" s="454"/>
+      <c r="K28" s="454"/>
+      <c r="L28" s="454"/>
+      <c r="M28" s="455"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="466" t="s">
+      <c r="A29" s="450" t="s">
         <v>430</v>
       </c>
-      <c r="B29" s="467"/>
+      <c r="B29" s="451"/>
       <c r="C29" s="262"/>
-      <c r="D29" s="464"/>
-      <c r="E29" s="464"/>
-      <c r="F29" s="464"/>
-      <c r="G29" s="464"/>
-      <c r="H29" s="464"/>
-      <c r="I29" s="464"/>
-      <c r="J29" s="464"/>
-      <c r="K29" s="464"/>
-      <c r="L29" s="464"/>
-      <c r="M29" s="465"/>
+      <c r="D29" s="454"/>
+      <c r="E29" s="454"/>
+      <c r="F29" s="454"/>
+      <c r="G29" s="454"/>
+      <c r="H29" s="454"/>
+      <c r="I29" s="454"/>
+      <c r="J29" s="454"/>
+      <c r="K29" s="454"/>
+      <c r="L29" s="454"/>
+      <c r="M29" s="455"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="466"/>
-      <c r="B30" s="467"/>
+      <c r="A30" s="450"/>
+      <c r="B30" s="451"/>
       <c r="C30" s="262"/>
-      <c r="D30" s="464"/>
-      <c r="E30" s="464"/>
-      <c r="F30" s="464"/>
-      <c r="G30" s="464"/>
-      <c r="H30" s="464"/>
-      <c r="I30" s="464"/>
-      <c r="J30" s="464"/>
-      <c r="K30" s="464"/>
-      <c r="L30" s="464"/>
-      <c r="M30" s="465"/>
+      <c r="D30" s="454"/>
+      <c r="E30" s="454"/>
+      <c r="F30" s="454"/>
+      <c r="G30" s="454"/>
+      <c r="H30" s="454"/>
+      <c r="I30" s="454"/>
+      <c r="J30" s="454"/>
+      <c r="K30" s="454"/>
+      <c r="L30" s="454"/>
+      <c r="M30" s="455"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="466" t="s">
+      <c r="A31" s="450" t="s">
         <v>431</v>
       </c>
-      <c r="B31" s="467"/>
+      <c r="B31" s="451"/>
       <c r="C31" s="262"/>
-      <c r="D31" s="464"/>
-      <c r="E31" s="464"/>
-      <c r="F31" s="464"/>
-      <c r="G31" s="464"/>
-      <c r="H31" s="464"/>
-      <c r="I31" s="464"/>
-      <c r="J31" s="464"/>
-      <c r="K31" s="464"/>
-      <c r="L31" s="464"/>
-      <c r="M31" s="465"/>
+      <c r="D31" s="454"/>
+      <c r="E31" s="454"/>
+      <c r="F31" s="454"/>
+      <c r="G31" s="454"/>
+      <c r="H31" s="454"/>
+      <c r="I31" s="454"/>
+      <c r="J31" s="454"/>
+      <c r="K31" s="454"/>
+      <c r="L31" s="454"/>
+      <c r="M31" s="455"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="466"/>
-      <c r="B32" s="467"/>
+      <c r="A32" s="450"/>
+      <c r="B32" s="451"/>
       <c r="C32" s="262"/>
-      <c r="D32" s="464"/>
-      <c r="E32" s="464"/>
-      <c r="F32" s="464"/>
-      <c r="G32" s="464"/>
-      <c r="H32" s="464"/>
-      <c r="I32" s="464"/>
-      <c r="J32" s="464"/>
-      <c r="K32" s="464"/>
-      <c r="L32" s="464"/>
-      <c r="M32" s="465"/>
+      <c r="D32" s="454"/>
+      <c r="E32" s="454"/>
+      <c r="F32" s="454"/>
+      <c r="G32" s="454"/>
+      <c r="H32" s="454"/>
+      <c r="I32" s="454"/>
+      <c r="J32" s="454"/>
+      <c r="K32" s="454"/>
+      <c r="L32" s="454"/>
+      <c r="M32" s="455"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="466" t="s">
+      <c r="A33" s="450" t="s">
         <v>432</v>
       </c>
-      <c r="B33" s="467"/>
+      <c r="B33" s="451"/>
       <c r="C33" s="262"/>
-      <c r="D33" s="464"/>
-      <c r="E33" s="464"/>
-      <c r="F33" s="464"/>
-      <c r="G33" s="464"/>
-      <c r="H33" s="464"/>
-      <c r="I33" s="464"/>
-      <c r="J33" s="464"/>
-      <c r="K33" s="464"/>
-      <c r="L33" s="464"/>
-      <c r="M33" s="465"/>
+      <c r="D33" s="454"/>
+      <c r="E33" s="454"/>
+      <c r="F33" s="454"/>
+      <c r="G33" s="454"/>
+      <c r="H33" s="454"/>
+      <c r="I33" s="454"/>
+      <c r="J33" s="454"/>
+      <c r="K33" s="454"/>
+      <c r="L33" s="454"/>
+      <c r="M33" s="455"/>
     </row>
     <row r="34" spans="1:18" ht="14.25" thickBot="1">
-      <c r="A34" s="468"/>
-      <c r="B34" s="469"/>
+      <c r="A34" s="452"/>
+      <c r="B34" s="453"/>
       <c r="C34" s="263"/>
-      <c r="D34" s="470"/>
-      <c r="E34" s="470"/>
-      <c r="F34" s="470"/>
-      <c r="G34" s="470"/>
-      <c r="H34" s="470"/>
-      <c r="I34" s="470"/>
-      <c r="J34" s="470"/>
-      <c r="K34" s="470"/>
-      <c r="L34" s="470"/>
-      <c r="M34" s="471"/>
+      <c r="D34" s="456"/>
+      <c r="E34" s="456"/>
+      <c r="F34" s="456"/>
+      <c r="G34" s="456"/>
+      <c r="H34" s="456"/>
+      <c r="I34" s="456"/>
+      <c r="J34" s="456"/>
+      <c r="K34" s="456"/>
+      <c r="L34" s="456"/>
+      <c r="M34" s="457"/>
     </row>
     <row r="36" spans="1:18">
       <c r="E36" t="s">
@@ -36635,89 +36635,89 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="474" t="s">
+      <c r="A39" s="444" t="s">
         <v>434</v>
       </c>
-      <c r="B39" s="475"/>
-      <c r="C39" s="475"/>
-      <c r="D39" s="475"/>
-      <c r="E39" s="475"/>
-      <c r="F39" s="475"/>
-      <c r="G39" s="475"/>
-      <c r="H39" s="476"/>
+      <c r="B39" s="445"/>
+      <c r="C39" s="445"/>
+      <c r="D39" s="445"/>
+      <c r="E39" s="445"/>
+      <c r="F39" s="445"/>
+      <c r="G39" s="445"/>
+      <c r="H39" s="446"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="472" t="s">
+      <c r="J39" s="443" t="s">
         <v>434</v>
       </c>
-      <c r="K39" s="472"/>
-      <c r="L39" s="472"/>
-      <c r="M39" s="472"/>
-      <c r="N39" s="472"/>
-      <c r="O39" s="472"/>
-      <c r="P39" s="472"/>
-      <c r="Q39" s="472"/>
-      <c r="R39" s="472"/>
+      <c r="K39" s="443"/>
+      <c r="L39" s="443"/>
+      <c r="M39" s="443"/>
+      <c r="N39" s="443"/>
+      <c r="O39" s="443"/>
+      <c r="P39" s="443"/>
+      <c r="Q39" s="443"/>
+      <c r="R39" s="443"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="477"/>
-      <c r="B40" s="478"/>
-      <c r="C40" s="478"/>
-      <c r="D40" s="478"/>
-      <c r="E40" s="478"/>
-      <c r="F40" s="478"/>
-      <c r="G40" s="478"/>
-      <c r="H40" s="479"/>
+      <c r="A40" s="447"/>
+      <c r="B40" s="448"/>
+      <c r="C40" s="448"/>
+      <c r="D40" s="448"/>
+      <c r="E40" s="448"/>
+      <c r="F40" s="448"/>
+      <c r="G40" s="448"/>
+      <c r="H40" s="449"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="472"/>
-      <c r="K40" s="472"/>
-      <c r="L40" s="472"/>
-      <c r="M40" s="472"/>
-      <c r="N40" s="472"/>
-      <c r="O40" s="472"/>
-      <c r="P40" s="472"/>
-      <c r="Q40" s="472"/>
-      <c r="R40" s="472"/>
+      <c r="J40" s="443"/>
+      <c r="K40" s="443"/>
+      <c r="L40" s="443"/>
+      <c r="M40" s="443"/>
+      <c r="N40" s="443"/>
+      <c r="O40" s="443"/>
+      <c r="P40" s="443"/>
+      <c r="Q40" s="443"/>
+      <c r="R40" s="443"/>
     </row>
     <row r="41" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A41" s="473" t="s">
+      <c r="A41" s="441" t="s">
         <v>435</v>
       </c>
       <c r="B41" s="130" t="s">
         <v>436</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="441" t="s">
         <v>437</v>
       </c>
-      <c r="D41" s="473"/>
-      <c r="E41" s="473"/>
-      <c r="F41" s="473" t="s">
+      <c r="D41" s="441"/>
+      <c r="E41" s="441"/>
+      <c r="F41" s="441" t="s">
         <v>438</v>
       </c>
-      <c r="G41" s="473"/>
-      <c r="H41" s="473"/>
+      <c r="G41" s="441"/>
+      <c r="H41" s="441"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="473" t="s">
+      <c r="J41" s="441" t="s">
         <v>435</v>
       </c>
       <c r="K41" s="130" t="s">
         <v>436</v>
       </c>
-      <c r="L41" s="473" t="s">
+      <c r="L41" s="441" t="s">
         <v>439</v>
       </c>
-      <c r="M41" s="473"/>
-      <c r="N41" s="473"/>
-      <c r="O41" s="473" t="s">
+      <c r="M41" s="441"/>
+      <c r="N41" s="441"/>
+      <c r="O41" s="441" t="s">
         <v>440</v>
       </c>
-      <c r="P41" s="473"/>
-      <c r="Q41" s="473"/>
-      <c r="R41" s="480" t="s">
+      <c r="P41" s="441"/>
+      <c r="Q41" s="441"/>
+      <c r="R41" s="442" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="473"/>
+      <c r="A42" s="441"/>
       <c r="B42" s="130" t="s">
         <v>442</v>
       </c>
@@ -36740,7 +36740,7 @@
         <v>443</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="473"/>
+      <c r="J42" s="441"/>
       <c r="K42" s="130" t="s">
         <v>442</v>
       </c>
@@ -36762,10 +36762,10 @@
       <c r="Q42" s="130" t="s">
         <v>443</v>
       </c>
-      <c r="R42" s="480"/>
+      <c r="R42" s="442"/>
     </row>
     <row r="43" spans="1:18" ht="25.5">
-      <c r="A43" s="473" t="s">
+      <c r="A43" s="441" t="s">
         <v>444</v>
       </c>
       <c r="B43" s="131" t="s">
@@ -36778,7 +36778,7 @@
       <c r="G43" s="133"/>
       <c r="H43" s="134"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="473" t="s">
+      <c r="J43" s="441" t="s">
         <v>444</v>
       </c>
       <c r="K43" s="131" t="s">
@@ -36793,7 +36793,7 @@
       <c r="R43" s="135"/>
     </row>
     <row r="44" spans="1:18" ht="25.5">
-      <c r="A44" s="473"/>
+      <c r="A44" s="441"/>
       <c r="B44" s="131" t="s">
         <v>446</v>
       </c>
@@ -36804,7 +36804,7 @@
       <c r="G44" s="133"/>
       <c r="H44" s="134"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="473"/>
+      <c r="J44" s="441"/>
       <c r="K44" s="131" t="s">
         <v>446</v>
       </c>
@@ -36817,7 +36817,7 @@
       <c r="R44" s="135"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="473"/>
+      <c r="A45" s="441"/>
       <c r="B45" s="131" t="s">
         <v>447</v>
       </c>
@@ -36828,7 +36828,7 @@
       <c r="G45" s="133"/>
       <c r="H45" s="134"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="473"/>
+      <c r="J45" s="441"/>
       <c r="K45" s="131" t="s">
         <v>447</v>
       </c>
@@ -36841,7 +36841,7 @@
       <c r="R45" s="135"/>
     </row>
     <row r="46" spans="1:18" ht="25.5">
-      <c r="A46" s="473" t="s">
+      <c r="A46" s="441" t="s">
         <v>448</v>
       </c>
       <c r="B46" s="131" t="s">
@@ -36854,7 +36854,7 @@
       <c r="G46" s="133"/>
       <c r="H46" s="133"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="473" t="s">
+      <c r="J46" s="441" t="s">
         <v>448</v>
       </c>
       <c r="K46" s="131" t="s">
@@ -36869,7 +36869,7 @@
       <c r="R46" s="135"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="473"/>
+      <c r="A47" s="441"/>
       <c r="B47" s="131" t="s">
         <v>447</v>
       </c>
@@ -36880,7 +36880,7 @@
       <c r="G47" s="133"/>
       <c r="H47" s="133"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="473"/>
+      <c r="J47" s="441"/>
       <c r="K47" s="131" t="s">
         <v>447</v>
       </c>
@@ -36893,7 +36893,7 @@
       <c r="R47" s="135"/>
     </row>
     <row r="48" spans="1:18" ht="25.5">
-      <c r="A48" s="473" t="s">
+      <c r="A48" s="441" t="s">
         <v>449</v>
       </c>
       <c r="B48" s="131" t="s">
@@ -36906,7 +36906,7 @@
       <c r="G48" s="133"/>
       <c r="H48" s="133"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="473" t="s">
+      <c r="J48" s="441" t="s">
         <v>449</v>
       </c>
       <c r="K48" s="131" t="s">
@@ -36921,7 +36921,7 @@
       <c r="R48" s="135"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="473"/>
+      <c r="A49" s="441"/>
       <c r="B49" s="131" t="s">
         <v>447</v>
       </c>
@@ -36932,7 +36932,7 @@
       <c r="G49" s="133"/>
       <c r="H49" s="133"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="473"/>
+      <c r="J49" s="441"/>
       <c r="K49" s="131" t="s">
         <v>447</v>
       </c>
@@ -36945,10 +36945,10 @@
       <c r="R49" s="135"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="473" t="s">
+      <c r="A50" s="441" t="s">
         <v>450</v>
       </c>
-      <c r="B50" s="473"/>
+      <c r="B50" s="441"/>
       <c r="C50" s="132"/>
       <c r="D50" s="132"/>
       <c r="E50" s="132"/>
@@ -36956,10 +36956,10 @@
       <c r="G50" s="133"/>
       <c r="H50" s="133"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="473" t="s">
+      <c r="J50" s="441" t="s">
         <v>450</v>
       </c>
-      <c r="K50" s="473"/>
+      <c r="K50" s="441"/>
       <c r="L50" s="132"/>
       <c r="M50" s="132"/>
       <c r="N50" s="132"/>
@@ -36975,43 +36975,23 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J39:R40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A39:H40"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:P2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="A4:C15"/>
+    <mergeCell ref="M4:O15"/>
+    <mergeCell ref="A16:C21"/>
+    <mergeCell ref="M16:O21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:M26"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
@@ -37028,23 +37008,43 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="J27:M27"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="A4:C15"/>
-    <mergeCell ref="M4:O15"/>
-    <mergeCell ref="A16:C21"/>
-    <mergeCell ref="M16:O21"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="M1:P2"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J39:R40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A39:H40"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="J48:J49"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37072,27 +37072,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A1" s="329" t="s">
+      <c r="A1" s="339" t="s">
         <v>730</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="330" t="s">
+      <c r="A2" s="340" t="s">
         <v>731</v>
       </c>
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="341" t="s">
         <v>732</v>
       </c>
-      <c r="C2" s="330" t="s">
+      <c r="C2" s="340" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="330"/>
-      <c r="B3" s="332"/>
-      <c r="C3" s="330"/>
+      <c r="A3" s="340"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="340"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="220" t="s">
@@ -37356,27 +37356,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="345" t="s">
         <v>730</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="336" t="s">
         <v>731</v>
       </c>
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="336" t="s">
         <v>732</v>
       </c>
-      <c r="C2" s="328" t="s">
+      <c r="C2" s="338" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="327"/>
-      <c r="B3" s="327"/>
-      <c r="C3" s="328"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="338"/>
     </row>
     <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="230" t="s">
@@ -37416,7 +37416,7 @@
       <c r="B7" s="222" t="s">
         <v>735</v>
       </c>
-      <c r="C7" s="333" t="s">
+      <c r="C7" s="343" t="s">
         <v>778</v>
       </c>
     </row>
@@ -37427,7 +37427,7 @@
       <c r="B8" s="232" t="s">
         <v>753</v>
       </c>
-      <c r="C8" s="334"/>
+      <c r="C8" s="344"/>
     </row>
     <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="232" t="s">
@@ -37487,7 +37487,7 @@
       <c r="B14" s="232" t="s">
         <v>753</v>
       </c>
-      <c r="C14" s="333" t="s">
+      <c r="C14" s="343" t="s">
         <v>790</v>
       </c>
     </row>
@@ -37498,7 +37498,7 @@
       <c r="B15" s="232" t="s">
         <v>753</v>
       </c>
-      <c r="C15" s="334"/>
+      <c r="C15" s="344"/>
     </row>
     <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="232" t="s">
@@ -37549,27 +37549,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="345" t="s">
         <v>730</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="336" t="s">
         <v>731</v>
       </c>
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="336" t="s">
         <v>732</v>
       </c>
-      <c r="C2" s="328" t="s">
+      <c r="C2" s="338" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="327"/>
-      <c r="B3" s="327"/>
-      <c r="C3" s="328"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="338"/>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="223" t="s">
@@ -39676,10 +39676,10 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="350" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="336"/>
+      <c r="B8" s="350"/>
       <c r="C8" s="11" t="s">
         <v>39</v>
       </c>
@@ -39706,7 +39706,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.25">
-      <c r="A9" s="336" t="s">
+      <c r="A9" s="350" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="10">
@@ -39721,7 +39721,7 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="14.25">
-      <c r="A10" s="336"/>
+      <c r="A10" s="350"/>
       <c r="B10" s="10">
         <v>5</v>
       </c>
@@ -39734,7 +39734,7 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="14.25">
-      <c r="A11" s="336"/>
+      <c r="A11" s="350"/>
       <c r="B11" s="10">
         <v>6</v>
       </c>
@@ -39747,7 +39747,7 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="14.25">
-      <c r="A12" s="336"/>
+      <c r="A12" s="350"/>
       <c r="B12" s="10">
         <v>7</v>
       </c>
@@ -39760,7 +39760,7 @@
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="14.25">
-      <c r="A13" s="336"/>
+      <c r="A13" s="350"/>
       <c r="B13" s="10">
         <v>8</v>
       </c>
@@ -39773,7 +39773,7 @@
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:12" ht="14.25">
-      <c r="A14" s="336"/>
+      <c r="A14" s="350"/>
       <c r="B14" s="10">
         <v>9</v>
       </c>
@@ -39786,7 +39786,7 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="14.25">
-      <c r="A15" s="336"/>
+      <c r="A15" s="350"/>
       <c r="B15" s="10">
         <v>10</v>
       </c>
@@ -39799,7 +39799,7 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="14.25">
-      <c r="A16" s="336"/>
+      <c r="A16" s="350"/>
       <c r="B16" s="10">
         <v>11</v>
       </c>
@@ -39812,7 +39812,7 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="14.25">
-      <c r="A17" s="336"/>
+      <c r="A17" s="350"/>
       <c r="B17" s="10">
         <v>12</v>
       </c>
@@ -39825,7 +39825,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="14.25">
-      <c r="A18" s="336" t="s">
+      <c r="A18" s="350" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="10">
@@ -39840,7 +39840,7 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="14.25">
-      <c r="A19" s="336"/>
+      <c r="A19" s="350"/>
       <c r="B19" s="10">
         <v>2</v>
       </c>
@@ -39853,7 +39853,7 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="14.25">
-      <c r="A20" s="336"/>
+      <c r="A20" s="350"/>
       <c r="B20" s="10">
         <v>3</v>
       </c>
@@ -39871,25 +39871,25 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="24" customHeight="1">
-      <c r="A24" s="337" t="s">
+      <c r="A24" s="347" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="337"/>
-      <c r="C24" s="341" t="s">
+      <c r="B24" s="347"/>
+      <c r="C24" s="348" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="341"/>
-      <c r="E24" s="341"/>
-      <c r="F24" s="341"/>
-      <c r="G24" s="341"/>
-      <c r="H24" s="341"/>
-      <c r="I24" s="338" t="s">
+      <c r="D24" s="348"/>
+      <c r="E24" s="348"/>
+      <c r="F24" s="348"/>
+      <c r="G24" s="348"/>
+      <c r="H24" s="348"/>
+      <c r="I24" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="342" t="s">
+      <c r="J24" s="349" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="337" t="s">
+      <c r="K24" s="347" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -39897,8 +39897,8 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="337"/>
-      <c r="B25" s="337"/>
+      <c r="A25" s="347"/>
+      <c r="B25" s="347"/>
       <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
@@ -39917,12 +39917,12 @@
       <c r="H25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="339"/>
-      <c r="J25" s="342"/>
-      <c r="K25" s="337"/>
+      <c r="I25" s="352"/>
+      <c r="J25" s="349"/>
+      <c r="K25" s="347"/>
     </row>
     <row r="26" spans="1:13" ht="14.25">
-      <c r="A26" s="337" t="s">
+      <c r="A26" s="347" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="2">
@@ -39942,7 +39942,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25">
-      <c r="A27" s="337"/>
+      <c r="A27" s="347"/>
       <c r="B27" s="2">
         <v>5</v>
       </c>
@@ -39957,7 +39957,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="14.25">
-      <c r="A28" s="337"/>
+      <c r="A28" s="347"/>
       <c r="B28" s="2">
         <v>6</v>
       </c>
@@ -39972,7 +39972,7 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="14.25">
-      <c r="A29" s="337"/>
+      <c r="A29" s="347"/>
       <c r="B29" s="2">
         <v>7</v>
       </c>
@@ -39987,7 +39987,7 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="14.25">
-      <c r="A30" s="337"/>
+      <c r="A30" s="347"/>
       <c r="B30" s="2">
         <v>8</v>
       </c>
@@ -40002,7 +40002,7 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="14.25">
-      <c r="A31" s="337"/>
+      <c r="A31" s="347"/>
       <c r="B31" s="2">
         <v>9</v>
       </c>
@@ -40017,7 +40017,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="14.25">
-      <c r="A32" s="337"/>
+      <c r="A32" s="347"/>
       <c r="B32" s="2">
         <v>10</v>
       </c>
@@ -40032,7 +40032,7 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="14.25">
-      <c r="A33" s="337"/>
+      <c r="A33" s="347"/>
       <c r="B33" s="2">
         <v>11</v>
       </c>
@@ -40047,7 +40047,7 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="14.25">
-      <c r="A34" s="337"/>
+      <c r="A34" s="347"/>
       <c r="B34" s="2">
         <v>12</v>
       </c>
@@ -40062,7 +40062,7 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="14.25">
-      <c r="A35" s="337" t="s">
+      <c r="A35" s="347" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="2">
@@ -40079,7 +40079,7 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:13" ht="14.25">
-      <c r="A36" s="337"/>
+      <c r="A36" s="347"/>
       <c r="B36" s="2">
         <v>2</v>
       </c>
@@ -40094,7 +40094,7 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="14.25">
-      <c r="A37" s="337"/>
+      <c r="A37" s="347"/>
       <c r="B37" s="2">
         <v>3</v>
       </c>
@@ -40114,10 +40114,10 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="337" t="s">
+      <c r="A43" s="347" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="337"/>
+      <c r="B43" s="347"/>
       <c r="C43" s="6" t="s">
         <v>20</v>
       </c>
@@ -40147,7 +40147,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25">
-      <c r="A44" s="337" t="s">
+      <c r="A44" s="347" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="2">
@@ -40163,7 +40163,7 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:13" ht="14.25">
-      <c r="A45" s="337"/>
+      <c r="A45" s="347"/>
       <c r="B45" s="2">
         <v>5</v>
       </c>
@@ -40177,7 +40177,7 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="14.25">
-      <c r="A46" s="337"/>
+      <c r="A46" s="347"/>
       <c r="B46" s="2">
         <v>6</v>
       </c>
@@ -40191,7 +40191,7 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:13" ht="14.25">
-      <c r="A47" s="337"/>
+      <c r="A47" s="347"/>
       <c r="B47" s="2">
         <v>7</v>
       </c>
@@ -40205,7 +40205,7 @@
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:13" ht="14.25">
-      <c r="A48" s="337"/>
+      <c r="A48" s="347"/>
       <c r="B48" s="2">
         <v>8</v>
       </c>
@@ -40219,7 +40219,7 @@
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="14.25">
-      <c r="A49" s="337"/>
+      <c r="A49" s="347"/>
       <c r="B49" s="2">
         <v>9</v>
       </c>
@@ -40233,7 +40233,7 @@
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:13" ht="14.25">
-      <c r="A50" s="337"/>
+      <c r="A50" s="347"/>
       <c r="B50" s="2">
         <v>10</v>
       </c>
@@ -40247,7 +40247,7 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:13" ht="14.25">
-      <c r="A51" s="337"/>
+      <c r="A51" s="347"/>
       <c r="B51" s="2">
         <v>11</v>
       </c>
@@ -40261,7 +40261,7 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:13" ht="14.25">
-      <c r="A52" s="337"/>
+      <c r="A52" s="347"/>
       <c r="B52" s="2">
         <v>12</v>
       </c>
@@ -40275,7 +40275,7 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:13" ht="14.25">
-      <c r="A53" s="337" t="s">
+      <c r="A53" s="347" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="2">
@@ -40291,7 +40291,7 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:13" ht="14.25">
-      <c r="A54" s="337"/>
+      <c r="A54" s="347"/>
       <c r="B54" s="2">
         <v>2</v>
       </c>
@@ -40305,7 +40305,7 @@
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:13" ht="14.25">
-      <c r="A55" s="337"/>
+      <c r="A55" s="347"/>
       <c r="B55" s="2">
         <v>3</v>
       </c>
@@ -40333,32 +40333,32 @@
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="337" t="s">
+      <c r="A61" s="347" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="337"/>
-      <c r="C61" s="340" t="s">
+      <c r="B61" s="347"/>
+      <c r="C61" s="346" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="340" t="s">
+      <c r="D61" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="340" t="s">
+      <c r="E61" s="346" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="340" t="s">
+      <c r="F61" s="346" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="340" t="s">
+      <c r="G61" s="346" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="340" t="s">
+      <c r="H61" s="346" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="340" t="s">
+      <c r="I61" s="346" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="340" t="s">
+      <c r="J61" s="346" t="s">
         <v>3</v>
       </c>
       <c r="M61" s="3" t="s">
@@ -40366,19 +40366,19 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A62" s="337"/>
-      <c r="B62" s="337"/>
-      <c r="C62" s="340"/>
-      <c r="D62" s="340"/>
-      <c r="E62" s="340"/>
-      <c r="F62" s="340"/>
-      <c r="G62" s="340"/>
-      <c r="H62" s="340"/>
-      <c r="I62" s="340"/>
-      <c r="J62" s="340"/>
+      <c r="A62" s="347"/>
+      <c r="B62" s="347"/>
+      <c r="C62" s="346"/>
+      <c r="D62" s="346"/>
+      <c r="E62" s="346"/>
+      <c r="F62" s="346"/>
+      <c r="G62" s="346"/>
+      <c r="H62" s="346"/>
+      <c r="I62" s="346"/>
+      <c r="J62" s="346"/>
     </row>
     <row r="63" spans="1:13" ht="14.25">
-      <c r="A63" s="337" t="s">
+      <c r="A63" s="347" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="2">
@@ -40397,7 +40397,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="14.25">
-      <c r="A64" s="337"/>
+      <c r="A64" s="347"/>
       <c r="B64" s="2">
         <v>5</v>
       </c>
@@ -40411,7 +40411,7 @@
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:10" ht="14.25">
-      <c r="A65" s="337"/>
+      <c r="A65" s="347"/>
       <c r="B65" s="2">
         <v>6</v>
       </c>
@@ -40425,7 +40425,7 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" ht="14.25">
-      <c r="A66" s="337"/>
+      <c r="A66" s="347"/>
       <c r="B66" s="2">
         <v>7</v>
       </c>
@@ -40439,7 +40439,7 @@
       <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" ht="14.25">
-      <c r="A67" s="337"/>
+      <c r="A67" s="347"/>
       <c r="B67" s="2">
         <v>8</v>
       </c>
@@ -40453,7 +40453,7 @@
       <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" ht="14.25">
-      <c r="A68" s="337"/>
+      <c r="A68" s="347"/>
       <c r="B68" s="2">
         <v>9</v>
       </c>
@@ -40467,7 +40467,7 @@
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" ht="14.25">
-      <c r="A69" s="337"/>
+      <c r="A69" s="347"/>
       <c r="B69" s="2">
         <v>10</v>
       </c>
@@ -40481,7 +40481,7 @@
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" ht="14.25">
-      <c r="A70" s="337"/>
+      <c r="A70" s="347"/>
       <c r="B70" s="2">
         <v>11</v>
       </c>
@@ -40495,7 +40495,7 @@
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" ht="14.25">
-      <c r="A71" s="337"/>
+      <c r="A71" s="347"/>
       <c r="B71" s="2">
         <v>12</v>
       </c>
@@ -40509,7 +40509,7 @@
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="14.25">
-      <c r="A72" s="337" t="s">
+      <c r="A72" s="347" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="2">
@@ -40525,7 +40525,7 @@
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" ht="14.25">
-      <c r="A73" s="337"/>
+      <c r="A73" s="347"/>
       <c r="B73" s="2">
         <v>2</v>
       </c>
@@ -40539,7 +40539,7 @@
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:10" ht="14.25">
-      <c r="A74" s="337"/>
+      <c r="A74" s="347"/>
       <c r="B74" s="2">
         <v>3</v>
       </c>
@@ -40554,6 +40554,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
     <mergeCell ref="J61:J62"/>
     <mergeCell ref="A63:A71"/>
     <mergeCell ref="E61:E62"/>
@@ -40567,17 +40578,6 @@
     <mergeCell ref="A26:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40590,7 +40590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
@@ -40630,7 +40630,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A9" s="343" t="s">
+      <c r="A9" s="353" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -40653,7 +40653,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
-      <c r="A10" s="344"/>
+      <c r="A10" s="354"/>
       <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
@@ -40663,7 +40663,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="14.25">
-      <c r="A11" s="344"/>
+      <c r="A11" s="354"/>
       <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
@@ -40673,7 +40673,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="344"/>
+      <c r="A12" s="354"/>
       <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
@@ -40683,7 +40683,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="14.25">
-      <c r="A13" s="345"/>
+      <c r="A13" s="355"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -40706,10 +40706,10 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="346" t="s">
+      <c r="A18" s="356" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="346"/>
+      <c r="B18" s="356"/>
       <c r="C18" s="109" t="s">
         <v>39</v>
       </c>
@@ -40736,7 +40736,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25">
-      <c r="A19" s="346" t="s">
+      <c r="A19" s="356" t="s">
         <v>861</v>
       </c>
       <c r="B19" s="24">
@@ -40751,7 +40751,7 @@
       <c r="I19" s="110"/>
     </row>
     <row r="20" spans="1:11" ht="14.25">
-      <c r="A20" s="346"/>
+      <c r="A20" s="356"/>
       <c r="B20" s="24">
         <v>5</v>
       </c>
@@ -40764,7 +40764,7 @@
       <c r="I20" s="110"/>
     </row>
     <row r="21" spans="1:11" ht="14.25">
-      <c r="A21" s="346"/>
+      <c r="A21" s="356"/>
       <c r="B21" s="24">
         <v>6</v>
       </c>
@@ -40777,7 +40777,7 @@
       <c r="I21" s="110"/>
     </row>
     <row r="22" spans="1:11" ht="14.25">
-      <c r="A22" s="346"/>
+      <c r="A22" s="356"/>
       <c r="B22" s="24">
         <v>7</v>
       </c>
@@ -40790,7 +40790,7 @@
       <c r="I22" s="110"/>
     </row>
     <row r="23" spans="1:11" ht="14.25">
-      <c r="A23" s="346"/>
+      <c r="A23" s="356"/>
       <c r="B23" s="24">
         <v>8</v>
       </c>
@@ -40803,7 +40803,7 @@
       <c r="I23" s="110"/>
     </row>
     <row r="24" spans="1:11" ht="14.25">
-      <c r="A24" s="346"/>
+      <c r="A24" s="356"/>
       <c r="B24" s="24">
         <v>9</v>
       </c>
@@ -40816,7 +40816,7 @@
       <c r="I24" s="110"/>
     </row>
     <row r="25" spans="1:11" ht="14.25">
-      <c r="A25" s="346"/>
+      <c r="A25" s="356"/>
       <c r="B25" s="24">
         <v>10</v>
       </c>
@@ -40829,7 +40829,7 @@
       <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:11" ht="14.25">
-      <c r="A26" s="346"/>
+      <c r="A26" s="356"/>
       <c r="B26" s="24">
         <v>11</v>
       </c>
@@ -40842,7 +40842,7 @@
       <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:11" ht="14.25">
-      <c r="A27" s="346"/>
+      <c r="A27" s="356"/>
       <c r="B27" s="24">
         <v>12</v>
       </c>
@@ -40855,7 +40855,7 @@
       <c r="I27" s="110"/>
     </row>
     <row r="28" spans="1:11" ht="14.25">
-      <c r="A28" s="346" t="s">
+      <c r="A28" s="356" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="24">
@@ -40870,7 +40870,7 @@
       <c r="I28" s="110"/>
     </row>
     <row r="29" spans="1:11" ht="14.25">
-      <c r="A29" s="346"/>
+      <c r="A29" s="356"/>
       <c r="B29" s="24">
         <v>2</v>
       </c>
@@ -40883,7 +40883,7 @@
       <c r="I29" s="110"/>
     </row>
     <row r="30" spans="1:11" ht="14.25">
-      <c r="A30" s="346"/>
+      <c r="A30" s="356"/>
       <c r="B30" s="24">
         <v>3</v>
       </c>
@@ -40911,10 +40911,10 @@
       <c r="K33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="36">
-      <c r="A34" s="337" t="s">
+      <c r="A34" s="347" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="337"/>
+      <c r="B34" s="347"/>
       <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
@@ -40947,7 +40947,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25">
-      <c r="A35" s="337" t="s">
+      <c r="A35" s="347" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="2">
@@ -40967,7 +40967,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25">
-      <c r="A36" s="337"/>
+      <c r="A36" s="347"/>
       <c r="B36" s="2">
         <v>5</v>
       </c>
@@ -40982,7 +40982,7 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="14.25">
-      <c r="A37" s="337"/>
+      <c r="A37" s="347"/>
       <c r="B37" s="2">
         <v>6</v>
       </c>
@@ -40997,7 +40997,7 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="14.25">
-      <c r="A38" s="337"/>
+      <c r="A38" s="347"/>
       <c r="B38" s="2">
         <v>7</v>
       </c>
@@ -41012,7 +41012,7 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15">
-      <c r="A39" s="337"/>
+      <c r="A39" s="347"/>
       <c r="B39" s="2">
         <v>8</v>
       </c>
@@ -41027,7 +41027,7 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="14.25">
-      <c r="A40" s="337"/>
+      <c r="A40" s="347"/>
       <c r="B40" s="2">
         <v>9</v>
       </c>
@@ -41042,7 +41042,7 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="14.25">
-      <c r="A41" s="337"/>
+      <c r="A41" s="347"/>
       <c r="B41" s="2">
         <v>10</v>
       </c>
@@ -41057,7 +41057,7 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="14.25">
-      <c r="A42" s="337"/>
+      <c r="A42" s="347"/>
       <c r="B42" s="2">
         <v>11</v>
       </c>
@@ -41072,7 +41072,7 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="14.25">
-      <c r="A43" s="337"/>
+      <c r="A43" s="347"/>
       <c r="B43" s="2">
         <v>12</v>
       </c>
@@ -41087,7 +41087,7 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="14.25">
-      <c r="A44" s="337" t="s">
+      <c r="A44" s="347" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="2">
@@ -41104,7 +41104,7 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:13" ht="14.25">
-      <c r="A45" s="337"/>
+      <c r="A45" s="347"/>
       <c r="B45" s="2">
         <v>2</v>
       </c>
@@ -41119,7 +41119,7 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="14.25">
-      <c r="A46" s="337"/>
+      <c r="A46" s="347"/>
       <c r="B46" s="2">
         <v>3</v>
       </c>
@@ -41139,10 +41139,10 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="24">
-      <c r="A50" s="336" t="s">
+      <c r="A50" s="350" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="336"/>
+      <c r="B50" s="350"/>
       <c r="C50" s="10" t="s">
         <v>52</v>
       </c>
@@ -41166,10 +41166,10 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="347" t="s">
+      <c r="A51" s="357" t="s">
         <v>858</v>
       </c>
-      <c r="B51" s="348"/>
+      <c r="B51" s="358"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -41178,7 +41178,7 @@
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="14.25">
-      <c r="A52" s="336" t="s">
+      <c r="A52" s="350" t="s">
         <v>1</v>
       </c>
       <c r="B52" s="10">
@@ -41192,7 +41192,7 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:11" ht="14.25">
-      <c r="A53" s="336"/>
+      <c r="A53" s="350"/>
       <c r="B53" s="10">
         <v>5</v>
       </c>
@@ -41204,7 +41204,7 @@
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:11" ht="14.25">
-      <c r="A54" s="336"/>
+      <c r="A54" s="350"/>
       <c r="B54" s="10">
         <v>6</v>
       </c>
@@ -41216,7 +41216,7 @@
       <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:11" ht="14.25">
-      <c r="A55" s="336"/>
+      <c r="A55" s="350"/>
       <c r="B55" s="10">
         <v>7</v>
       </c>
@@ -41228,7 +41228,7 @@
       <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:11" ht="15">
-      <c r="A56" s="336"/>
+      <c r="A56" s="350"/>
       <c r="B56" s="10">
         <v>8</v>
       </c>
@@ -41240,7 +41240,7 @@
       <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:11" ht="14.25">
-      <c r="A57" s="336"/>
+      <c r="A57" s="350"/>
       <c r="B57" s="10">
         <v>9</v>
       </c>
@@ -41252,7 +41252,7 @@
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:11" ht="14.25">
-      <c r="A58" s="336"/>
+      <c r="A58" s="350"/>
       <c r="B58" s="10">
         <v>10</v>
       </c>
@@ -41264,7 +41264,7 @@
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:11" ht="14.25">
-      <c r="A59" s="336"/>
+      <c r="A59" s="350"/>
       <c r="B59" s="10">
         <v>11</v>
       </c>
@@ -41276,7 +41276,7 @@
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:11" ht="14.25">
-      <c r="A60" s="336"/>
+      <c r="A60" s="350"/>
       <c r="B60" s="10">
         <v>12</v>
       </c>
@@ -41288,7 +41288,7 @@
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:11" ht="14.25">
-      <c r="A61" s="336" t="s">
+      <c r="A61" s="350" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="10">
@@ -41302,7 +41302,7 @@
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:11" ht="14.25">
-      <c r="A62" s="336"/>
+      <c r="A62" s="350"/>
       <c r="B62" s="10">
         <v>2</v>
       </c>
@@ -41314,7 +41314,7 @@
       <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:11" ht="14.25">
-      <c r="A63" s="336"/>
+      <c r="A63" s="350"/>
       <c r="B63" s="10">
         <v>3</v>
       </c>
@@ -41350,7 +41350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
@@ -41378,28 +41378,28 @@
       <c r="M1" s="31"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="359" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="350" t="s">
+      <c r="B3" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="350"/>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
-      <c r="K3" s="350" t="s">
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361"/>
+      <c r="H3" s="361"/>
+      <c r="I3" s="361"/>
+      <c r="J3" s="361"/>
+      <c r="K3" s="361" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="350"/>
-      <c r="M3" s="350"/>
+      <c r="L3" s="361"/>
+      <c r="M3" s="361"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="349"/>
+      <c r="A4" s="359"/>
       <c r="B4" s="28" t="s">
         <v>99</v>
       </c>
@@ -41837,28 +41837,28 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="349" t="s">
+      <c r="A30" s="359" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="350" t="s">
+      <c r="B30" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="350"/>
-      <c r="D30" s="350"/>
-      <c r="E30" s="350"/>
-      <c r="F30" s="350"/>
-      <c r="G30" s="350"/>
-      <c r="H30" s="350"/>
-      <c r="I30" s="350"/>
-      <c r="J30" s="350"/>
-      <c r="K30" s="350" t="s">
+      <c r="C30" s="361"/>
+      <c r="D30" s="361"/>
+      <c r="E30" s="361"/>
+      <c r="F30" s="361"/>
+      <c r="G30" s="361"/>
+      <c r="H30" s="361"/>
+      <c r="I30" s="361"/>
+      <c r="J30" s="361"/>
+      <c r="K30" s="361" t="s">
         <v>0</v>
       </c>
-      <c r="L30" s="350"/>
-      <c r="M30" s="350"/>
+      <c r="L30" s="361"/>
+      <c r="M30" s="361"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="349"/>
+      <c r="A31" s="359"/>
       <c r="B31" s="28" t="s">
         <v>99</v>
       </c>
@@ -42240,28 +42240,28 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="349" t="s">
+      <c r="A54" s="359" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="350" t="s">
+      <c r="B54" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="350"/>
-      <c r="D54" s="350"/>
-      <c r="E54" s="350"/>
-      <c r="F54" s="350"/>
-      <c r="G54" s="350"/>
-      <c r="H54" s="350"/>
-      <c r="I54" s="350"/>
-      <c r="J54" s="350"/>
-      <c r="K54" s="350" t="s">
+      <c r="C54" s="361"/>
+      <c r="D54" s="361"/>
+      <c r="E54" s="361"/>
+      <c r="F54" s="361"/>
+      <c r="G54" s="361"/>
+      <c r="H54" s="361"/>
+      <c r="I54" s="361"/>
+      <c r="J54" s="361"/>
+      <c r="K54" s="361" t="s">
         <v>0</v>
       </c>
-      <c r="L54" s="350"/>
-      <c r="M54" s="350"/>
+      <c r="L54" s="361"/>
+      <c r="M54" s="361"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="349"/>
+      <c r="A55" s="359"/>
       <c r="B55" s="28" t="s">
         <v>99</v>
       </c>
@@ -42595,28 +42595,28 @@
       <c r="M72" s="25"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="351" t="s">
+      <c r="A75" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="B75" s="346" t="s">
+      <c r="B75" s="356" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="346"/>
-      <c r="D75" s="346"/>
-      <c r="E75" s="346"/>
-      <c r="F75" s="346"/>
-      <c r="G75" s="346"/>
-      <c r="H75" s="346"/>
-      <c r="I75" s="346"/>
-      <c r="J75" s="346"/>
-      <c r="K75" s="346" t="s">
+      <c r="C75" s="356"/>
+      <c r="D75" s="356"/>
+      <c r="E75" s="356"/>
+      <c r="F75" s="356"/>
+      <c r="G75" s="356"/>
+      <c r="H75" s="356"/>
+      <c r="I75" s="356"/>
+      <c r="J75" s="356"/>
+      <c r="K75" s="356" t="s">
         <v>0</v>
       </c>
-      <c r="L75" s="346"/>
-      <c r="M75" s="346"/>
+      <c r="L75" s="356"/>
+      <c r="M75" s="356"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="351"/>
+      <c r="A76" s="362"/>
       <c r="B76" s="24" t="s">
         <v>99</v>
       </c>
@@ -42700,22 +42700,22 @@
       <c r="A82" s="22" t="s">
         <v>917</v>
       </c>
-      <c r="B82" s="336" t="s">
+      <c r="B82" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="336"/>
-      <c r="D82" s="336"/>
-      <c r="E82" s="336"/>
-      <c r="F82" s="336"/>
-      <c r="G82" s="336"/>
-      <c r="H82" s="336"/>
-      <c r="I82" s="336"/>
-      <c r="J82" s="336"/>
-      <c r="K82" s="352" t="s">
+      <c r="C82" s="350"/>
+      <c r="D82" s="350"/>
+      <c r="E82" s="350"/>
+      <c r="F82" s="350"/>
+      <c r="G82" s="350"/>
+      <c r="H82" s="350"/>
+      <c r="I82" s="350"/>
+      <c r="J82" s="350"/>
+      <c r="K82" s="360" t="s">
         <v>0</v>
       </c>
-      <c r="L82" s="352"/>
-      <c r="M82" s="352"/>
+      <c r="L82" s="360"/>
+      <c r="M82" s="360"/>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="323" t="s">
@@ -43116,28 +43116,28 @@
       <c r="M104" s="324"/>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="349" t="s">
+      <c r="A106" s="359" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="336" t="s">
+      <c r="B106" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="336"/>
-      <c r="D106" s="336"/>
-      <c r="E106" s="336"/>
-      <c r="F106" s="336"/>
-      <c r="G106" s="336"/>
-      <c r="H106" s="336"/>
-      <c r="I106" s="336"/>
-      <c r="J106" s="336"/>
-      <c r="K106" s="352" t="s">
+      <c r="C106" s="350"/>
+      <c r="D106" s="350"/>
+      <c r="E106" s="350"/>
+      <c r="F106" s="350"/>
+      <c r="G106" s="350"/>
+      <c r="H106" s="350"/>
+      <c r="I106" s="350"/>
+      <c r="J106" s="350"/>
+      <c r="K106" s="360" t="s">
         <v>0</v>
       </c>
-      <c r="L106" s="352"/>
-      <c r="M106" s="352"/>
+      <c r="L106" s="360"/>
+      <c r="M106" s="360"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="349"/>
+      <c r="A107" s="359"/>
       <c r="B107" s="10" t="s">
         <v>99</v>
       </c>
@@ -43432,23 +43432,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="B82:J82"/>
-    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:J54"/>
     <mergeCell ref="K54:M54"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="B75:J75"/>
     <mergeCell ref="K75:M75"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="B82:J82"/>
+    <mergeCell ref="K82:M82"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
